--- a/Businesses.xlsx
+++ b/Businesses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,114 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tomball Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>31479 TX-249, Pinehurst, TX 77362</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A &amp; R Granite Designs Inc</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23705 Lenze Rd, Spring, TX 77389</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Brothers Granite &amp; Marble Services LLC</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>countertopstoretomball.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>JB Granite Countertops Inc.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>26214 Wildflower Dr, Magnolia, TX 77354</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bolfing Brothers Marble, Inc.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>18407 Telge Rd, Cypress, TX 77429</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Cy Creek Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16110 Kitzman Rd, Cypress, TX 77429</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Red River Granite Importers &amp; Tile, LLC</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>(832) 286-7895</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Precise Stone Countertops.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>11914 Rockland Dr, Houston, TX 77064</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Pennys Porch</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8434 Spring Cypress Rd, Spring, TX 77379</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Businesses.xlsx
+++ b/Businesses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,1038 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Countertops Unlimited of Texas</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>21606 TX-249 B, Houston, TX 77070</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Solis Granite</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Spring, TX 77379</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Simply Solid Surface</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FM 1960, Houston, TX 77090</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Stone Edge Countertops</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>10251 Woodedge Dr, Houston, TX 77070</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Keystone Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>(832) 924-8247</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Precision Countertops</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>13315 Veterans Memorial Dr # 410, Houston, TX 77014</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>R &amp; D Countertops Inc.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>11450 Farm to Market 1960 Rd W #116, Houston, TX 77065</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Wave Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>14415 FM 529, Houston, TX 77095</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Houston Granite Remnants</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16745 Suite B, North Fwy, Houston, TX 77090</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Cypress Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>11223 Jones Rd, Houston, TX 77070</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>StoneStore</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>11850 Hempstead Hwy #230, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Rock Fin Countertops, Inc.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5830 Gessner Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Simmons Custom Granite</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5611 W Davis St, Conroe, TX 77304</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>King's Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2206 Maurine St, Houston, TX 77039</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>New Edge Stone. Inc,</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4810 Breen Dr, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L &amp; M Granite LLC.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1818 Humble Westfield Rd, Houston, TX 77073</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>iGranite</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1808 W Sam Houston Pkwy N, Houston, TX 77043</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hilltop Stones &amp; Interiors</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>8760 Clay Rd Suite B, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Galaxy Stone</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>9134 North Fwy, Houston, TX 77037</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>All World Supply &amp; Stone Home Remodel</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>23529 FM1314, Unit B, Porter, TX 77365</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Illusion Stone, Inc</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7118 Killough St, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Grand Stone, LLC</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4909 Weeping Willow Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Majestic Stone Countertops and Flooring</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>8444 Rayson Rd, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Omni Surfaces North | Marble Granite Quartz Porcelain</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>802 Farm to Market 1960 Rd E, Houston, TX 77073</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Vicostone Houston</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4710 North Sam Houston Pkwy W #100, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epic Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5610 Centralcrest St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Milestone Countertops</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1022 Wirt Rd #308, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Stone Coverings of Houston</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>11007 W Hardy Rd, Houston, TX 77076</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Granite World</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>303 N Frazier St, Conroe, TX 77301</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>BW Granite Design</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>12430 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Granite Zone</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Nursery Rd, Spring, TX 77380</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>NEW ERA STONE, LLC</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>23142 FM1314, Porter, TX 77365</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Tajams Marble And Granite</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>6429 W Sam Houston Pkwy N, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Euclase Stone Premium Quartz Warehouse</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5603 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>M.O.G. Custom Granite</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>11526 FM 2854 Rd, Conroe, TX 77304</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Glory to GOD, granite countertops in conroe tx , granite &amp; marble services , granite installation</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16902 Pickering Rd, Conroe, TX 77302</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Maestro Surfaces</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>2200 Lauder Rd, Houston, TX 77039</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Durastone Corporation</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>9815 North Fwy, Houston, TX 77037</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Lusso Stone Surfaces - Kitchen Countertop and Flooring</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>lussostonesurfaces.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Yellow Stone Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1933 Knoll St, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Elegant Stone Fabrication</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>11981 FM 529 Suite A, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Granite Master</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4502 Steffani Ln, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Lone Star Countertops</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>11997 FM 3083, Conroe, TX 77301</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Vera Quartz Countertops</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>12642 Hempstead Rd Suite: B, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Target Stone LLC</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>11514 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kitchen Cabinets and Granite Counter Tops</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>13601 FM 529, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>D&amp;D Granite</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>12390 TX-249 unit A1, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Top Of The Line Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>7411 Wright Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>The Granite Crew LLC</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2230 W Little York Rd, Houston, TX 77091</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jossemmy Stone</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4830 Ramus St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Houston Granite Guy</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>houstongraniteguy.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Midwest Tile Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>10555 Okanella St, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Reborn Granite</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>14730 Hempstead Rd, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SiRi Granite</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4849 Cranswick Rd building b, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MSI Houston</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>14777 Chrisman Rd, Houston, TX 77039</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Omni Surfaces Central | Marble Granite Quartz Porcelain</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>8721 Clay Rd STE A, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Five Stones Countertops &amp; More</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>8938 Spring Branch Dr d1, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>AXIAL STONES</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>11329 Todd St B, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Caesarstone Houston</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>10650 W Little York Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>City Stone LLC</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>8002 Pinemont Dr, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Vertex Stone Houston</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>5900 Cunningham Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Quartz Surfacing &amp; Stones (Houston, TX)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>6605 Roxburgh Dr #300, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ageless Stoneworks Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1622 Federal Rd, Houston, TX 77015</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Steadfast Stone Crafters, LLC</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>houstonmarblecountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Best Quartz and Granite</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>702 N Sam Houston Pkwy E, Houston, TX 77060</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>roisgranitecountertops</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>8057 Fallbrook Dr, Houston, TX 77064</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>K &amp; N Custom Granite,LLC</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3421 Bacor Rd, Houston, TX 77084</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Granite Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>10410 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Max Marble &amp; Granite Inc.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>4110 Southerland Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Natural Stone Gallery Inc</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>13202 Murphy Rd, Stafford, TX 77477</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Granite Marble Etc</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>6401 Long Point Rd bldg 600, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Northwest Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>11431 Todd St, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>American Countertop Fabricators</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1500 Brittmoore Rd Suite 504, Houston, TX 77043</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Simply Solid Surface</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>4634 Farm to Market 2920, Spring, TX 77388</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Legacy Granite and Marble Co., Inc</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>6214 Keyko St, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Imperial Granite</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>11126 Neeshaw Dr b9, Houston, TX 77065</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Terry Stone Inc</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>7020 Cotton Dr, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Eagle Stone LLC</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>14120 Hempstead Rd, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Ortega Stone and Tile Creations</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>327 E Roselane St, Houston, TX 77076</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Barron's Granite and Construction - Granite Fabricator, Granite Repair &amp; Installation, Granite Kitchen Countertops</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>tupalo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>QUAN STONE Countertops</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>quowanstone1.wixsite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>H&amp;V Granite CounterTops Services</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>9414 Bearden Creek Ln, Humble, TX 77396</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Schlitzberger Stone Designs</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>6343 Alder Dr, Houston, TX 77081</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Boeker Countertops of Houston</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>13018 Kaltenbrun Rd #1, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sapphire Stone</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Pacific Stone Enterprise</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>3375 Old Spanish Trl, Houston, TX 77021</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Businesses.xlsx
+++ b/Businesses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B97"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1589,6 +1589,246 @@
         </is>
       </c>
     </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Pick-A-Stone</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>5701 Bingle Rd Ste A106, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Absolute Marble and Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>505 Parker St, Houston, TX 77007</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Earth Stone Colours</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>8758 Clay Rd Suite #400, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>All World Stone Supply</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>23527 FM1314 Suite B, Porter, TX 77365</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Instyle Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>14210 Aston St, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Marvel-Works.Com</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>6700 Woodlands Pkwy STE 230 #455, The Woodlands, TX 77382</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Earth Stone Colours</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>4305 B, 4305 Richmond Ave. Ste A, Houston, TX 77027</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Future Stone</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>6040 Brittmoore Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ABC STONE &amp; KITCHEN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>335 Staffordshire Rd STE. 5, Stafford, TX 77477</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Earth Stone Colours (Prefab)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>8700 Clay Rd Suite #230, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Marble Line</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>32522 McAllister Rd, Brookshire, TX 77423</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Granite Countertops Houston Tx</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>granitecountertopshoustontx.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Millstone Marble</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>20737 FM 1774, Plantersville, TX 77363</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Mega Stone Inc</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>megastoneinc.business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Medina Countertops</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>medinacountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TT Stone Outlet</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>5750 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>JED Custom Countertops Corp.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>27405 Old Washington Rd, Hockley, TX 77447</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>TaylorMade Custom Granite</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>714 Honea Egypt Rd suite f, Magnolia, TX 77354</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>granite countertops starting at $5.99 per sf granite and cabinet warehouse</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>8307 Bauman Rd, Houston, TX 77022</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Xiamen Superior Stone Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>12333 Sowden Rd Ste B # 30327, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Businesses.xlsx
+++ b/Businesses.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B117"/>
+  <dimension ref="A1:B603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,1284 +548,7116 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pennys Porch</t>
+          <t>Countertops Unlimited of Texas</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8434 Spring Cypress Rd, Spring, TX 77379</t>
+          <t>21606 TX-249 B, Houston, TX 77070</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Countertops Unlimited of Texas</t>
+          <t>Simply Solid Surface</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>21606 TX-249 B, Houston, TX 77070</t>
+          <t>FM 1960, Houston, TX 77090</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Solis Granite</t>
+          <t>Stone Edge Countertops</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Spring, TX 77379</t>
+          <t>10251 Woodedge Dr, Houston, TX 77070</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Simply Solid Surface</t>
+          <t>Keystone Granite and Tile</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FM 1960, Houston, TX 77090</t>
+          <t>(832) 924-8247</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Stone Edge Countertops</t>
+          <t>Precision Countertops</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10251 Woodedge Dr, Houston, TX 77070</t>
+          <t>13315 Veterans Memorial Dr # 410, Houston, TX 77014</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Keystone Granite and Tile</t>
+          <t>R &amp; D Countertops Inc.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>(832) 924-8247</t>
+          <t>11450 Farm to Market 1960 Rd W #116, Houston, TX 77065</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Precision Countertops</t>
+          <t>Wave Granite and Marble</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13315 Veterans Memorial Dr # 410, Houston, TX 77014</t>
+          <t>14415 FM 529, Houston, TX 77095</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>R &amp; D Countertops Inc.</t>
+          <t>Houston Granite Remnants</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>11450 Farm to Market 1960 Rd W #116, Houston, TX 77065</t>
+          <t>16745 Suite B, North Fwy, Houston, TX 77090</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wave Granite and Marble</t>
+          <t>Cypress Granite and Tile</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>14415 FM 529, Houston, TX 77095</t>
+          <t>11223 Jones Rd, Houston, TX 77070</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Houston Granite Remnants</t>
+          <t>Granite Zone</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16745 Suite B, North Fwy, Houston, TX 77090</t>
+          <t>Nursery Rd, Spring, TX 77380</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cypress Granite and Tile</t>
+          <t>Marvel-Works.Com</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>11223 Jones Rd, Houston, TX 77070</t>
+          <t>6700 Woodlands Pkwy STE 230 #455, The Woodlands, TX 77382</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>StoneStore</t>
+          <t>Rock Fin Countertops, Inc.</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>11850 Hempstead Hwy #230, Houston, TX 77092</t>
+          <t>5830 Gessner Rd, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Rock Fin Countertops, Inc.</t>
+          <t>Simmons Custom Granite</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>5830 Gessner Rd, Houston, TX 77041</t>
+          <t>5611 W Davis St, Conroe, TX 77304</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Simmons Custom Granite</t>
+          <t>King's Granite &amp; Marble</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5611 W Davis St, Conroe, TX 77304</t>
+          <t>2206 Maurine St, Houston, TX 77039</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>King's Granite &amp; Marble</t>
+          <t>New Edge Stone. Inc,</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2206 Maurine St, Houston, TX 77039</t>
+          <t>4810 Breen Dr, Houston, TX 77086</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>New Edge Stone. Inc,</t>
+          <t>L &amp; M Granite LLC.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4810 Breen Dr, Houston, TX 77086</t>
+          <t>1818 Humble Westfield Rd, Houston, TX 77073</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L &amp; M Granite LLC.</t>
+          <t>iGranite</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1818 Humble Westfield Rd, Houston, TX 77073</t>
+          <t>1808 W Sam Houston Pkwy N, Houston, TX 77043</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>iGranite</t>
+          <t>Hilltop Stones &amp; Interiors</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1808 W Sam Houston Pkwy N, Houston, TX 77043</t>
+          <t>8760 Clay Rd Suite B, Houston, TX 77080</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Hilltop Stones &amp; Interiors</t>
+          <t>Galaxy Stone</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8760 Clay Rd Suite B, Houston, TX 77080</t>
+          <t>9134 North Fwy, Houston, TX 77037</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Galaxy Stone</t>
+          <t>All World Supply &amp; Stone Home Remodel</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>9134 North Fwy, Houston, TX 77037</t>
+          <t>23529 FM1314, Unit B, Porter, TX 77365</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>All World Supply &amp; Stone Home Remodel</t>
+          <t>Illusion Stone, Inc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>23529 FM1314, Unit B, Porter, TX 77365</t>
+          <t>7118 Killough St, Houston, TX 77086</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Illusion Stone, Inc</t>
+          <t>Grand Stone, LLC</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7118 Killough St, Houston, TX 77086</t>
+          <t>4909 Weeping Willow Rd, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Grand Stone, LLC</t>
+          <t>Majestic Stone Countertops and Flooring</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4909 Weeping Willow Rd, Houston, TX 77092</t>
+          <t>8444 Rayson Rd, Houston, TX 77080</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Majestic Stone Countertops and Flooring</t>
+          <t>Omni Surfaces North | Marble Granite Quartz Porcelain</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>8444 Rayson Rd, Houston, TX 77080</t>
+          <t>802 Farm to Market 1960 Rd E, Houston, TX 77073</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Omni Surfaces North | Marble Granite Quartz Porcelain</t>
+          <t>Vicostone Houston</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>802 Farm to Market 1960 Rd E, Houston, TX 77073</t>
+          <t>4710 North Sam Houston Pkwy W #100, Houston, TX 77086</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Vicostone Houston</t>
+          <t>Epic Granite Countertops</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>4710 North Sam Houston Pkwy W #100, Houston, TX 77086</t>
+          <t>5610 Centralcrest St, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epic Granite Countertops</t>
+          <t>Milestone Countertops</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>5610 Centralcrest St, Houston, TX 77092</t>
+          <t>1022 Wirt Rd #308, Houston, TX 77055</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Milestone Countertops</t>
+          <t>Stone Coverings of Houston</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1022 Wirt Rd #308, Houston, TX 77055</t>
+          <t>11007 W Hardy Rd, Houston, TX 77076</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Stone Coverings of Houston</t>
+          <t>Granite World</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11007 W Hardy Rd, Houston, TX 77076</t>
+          <t>303 N Frazier St, Conroe, TX 77301</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Granite World</t>
+          <t>BW Granite Design</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>303 N Frazier St, Conroe, TX 77301</t>
+          <t>12430 Hempstead Rd, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BW Granite Design</t>
+          <t>NEW ERA STONE, LLC</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>12430 Hempstead Rd, Houston, TX 77092</t>
+          <t>23142 FM1314, Porter, TX 77365</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Granite Zone</t>
+          <t>Tajams Marble And Granite</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Nursery Rd, Spring, TX 77380</t>
+          <t>6429 W Sam Houston Pkwy N, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>NEW ERA STONE, LLC</t>
+          <t>Euclase Stone Premium Quartz Warehouse</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>23142 FM1314, Porter, TX 77365</t>
+          <t>5603 Campbell Rd, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Tajams Marble And Granite</t>
+          <t>M.O.G. Custom Granite</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6429 W Sam Houston Pkwy N, Houston, TX 77041</t>
+          <t>11526 FM 2854 Rd, Conroe, TX 77304</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Euclase Stone Premium Quartz Warehouse</t>
+          <t>Glory to GOD, granite countertops in conroe tx , granite &amp; marble services , granite installation</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>5603 Campbell Rd, Houston, TX 77041</t>
+          <t>16902 Pickering Rd, Conroe, TX 77302</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>M.O.G. Custom Granite</t>
+          <t>Maestro Surfaces</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11526 FM 2854 Rd, Conroe, TX 77304</t>
+          <t>2200 Lauder Rd, Houston, TX 77039</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Glory to GOD, granite countertops in conroe tx , granite &amp; marble services , granite installation</t>
+          <t>Durastone Corporation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16902 Pickering Rd, Conroe, TX 77302</t>
+          <t>9815 North Fwy, Houston, TX 77037</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Maestro Surfaces</t>
+          <t>Lusso Stone Surfaces - Kitchen Countertop and Flooring</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2200 Lauder Rd, Houston, TX 77039</t>
+          <t>lussostonesurfaces.com</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Durastone Corporation</t>
+          <t>Yellow Stone Marble &amp; Granite</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>9815 North Fwy, Houston, TX 77037</t>
+          <t>1933 Knoll St, Houston, TX 77080</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lusso Stone Surfaces - Kitchen Countertop and Flooring</t>
+          <t>Elegant Stone Fabrication</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>lussostonesurfaces.com</t>
+          <t>11981 FM 529 Suite A, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Yellow Stone Marble &amp; Granite</t>
+          <t>Granite Master</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1933 Knoll St, Houston, TX 77080</t>
+          <t>4502 Steffani Ln, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Elegant Stone Fabrication</t>
+          <t>Lone Star Countertops</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>11981 FM 529 Suite A, Houston, TX 77041</t>
+          <t>11997 FM 3083, Conroe, TX 77301</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Granite Master</t>
+          <t>Vera Quartz Countertops</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>4502 Steffani Ln, Houston, TX 77041</t>
+          <t>12642 Hempstead Rd Suite: B, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Lone Star Countertops</t>
+          <t>Target Stone LLC</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>11997 FM 3083, Conroe, TX 77301</t>
+          <t>11514 Hempstead Rd, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Vera Quartz Countertops</t>
+          <t>Kitchen Cabinets and Granite Counter Tops</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>12642 Hempstead Rd Suite: B, Houston, TX 77092</t>
+          <t>13601 FM 529, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Target Stone LLC</t>
+          <t>D&amp;D Granite</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>11514 Hempstead Rd, Houston, TX 77092</t>
+          <t>12390 TX-249 unit A1, Houston, TX 77086</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Kitchen Cabinets and Granite Counter Tops</t>
+          <t>Top Of The Line Granite &amp; Marble</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>13601 FM 529, Houston, TX 77041</t>
+          <t>7411 Wright Rd, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>D&amp;D Granite</t>
+          <t>The Granite Crew LLC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>12390 TX-249 unit A1, Houston, TX 77086</t>
+          <t>2230 W Little York Rd, Houston, TX 77091</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Top Of The Line Granite &amp; Marble</t>
+          <t>Jossemmy Stone</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>7411 Wright Rd, Houston, TX 77041</t>
+          <t>4830 Ramus St, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>The Granite Crew LLC</t>
+          <t>Houston Granite Guy</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2230 W Little York Rd, Houston, TX 77091</t>
+          <t>houstongraniteguy.com</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jossemmy Stone</t>
+          <t>Midwest Tile Marble &amp; Granite</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>4830 Ramus St, Houston, TX 77092</t>
+          <t>10555 Okanella St, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Houston Granite Guy</t>
+          <t>Reborn Granite</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>houstongraniteguy.com</t>
+          <t>14730 Hempstead Rd, Houston, TX 77040</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Midwest Tile Marble &amp; Granite</t>
+          <t>SiRi Granite</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>10555 Okanella St, Houston, TX 77041</t>
+          <t>4849 Cranswick Rd building b, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Reborn Granite</t>
+          <t>MSI Houston</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>14730 Hempstead Rd, Houston, TX 77040</t>
+          <t>14777 Chrisman Rd, Houston, TX 77039</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SiRi Granite</t>
+          <t>Omni Surfaces Central | Marble Granite Quartz Porcelain</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4849 Cranswick Rd building b, Houston, TX 77041</t>
+          <t>8721 Clay Rd STE A, Houston, TX 77080</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MSI Houston</t>
+          <t>Five Stones Countertops &amp; More</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>14777 Chrisman Rd, Houston, TX 77039</t>
+          <t>8938 Spring Branch Dr d1, Houston, TX 77080</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Omni Surfaces Central | Marble Granite Quartz Porcelain</t>
+          <t>AXIAL STONES</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8721 Clay Rd STE A, Houston, TX 77080</t>
+          <t>11329 Todd St B, Houston, TX 77055</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Five Stones Countertops &amp; More</t>
+          <t>Caesarstone Houston</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>8938 Spring Branch Dr d1, Houston, TX 77080</t>
+          <t>10650 W Little York Rd, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>AXIAL STONES</t>
+          <t>Anderson Tile and Granite</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11329 Todd St B, Houston, TX 77055</t>
+          <t>24333 Riley Rd, Plantersville, TX 77363</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Caesarstone Houston</t>
+          <t>City Stone LLC</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>10650 W Little York Rd, Houston, TX 77041</t>
+          <t>8002 Pinemont Dr, Houston, TX 77040</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>City Stone LLC</t>
+          <t>Vertex Stone Houston</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>8002 Pinemont Dr, Houston, TX 77040</t>
+          <t>5900 Cunningham Rd, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Vertex Stone Houston</t>
+          <t>Quartz Surfacing &amp; Stones (Houston, TX)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>5900 Cunningham Rd, Houston, TX 77041</t>
+          <t>6605 Roxburgh Dr #300, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Quartz Surfacing &amp; Stones (Houston, TX)</t>
+          <t>Ageless Stoneworks Granite &amp; Marble</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>6605 Roxburgh Dr #300, Houston, TX 77041</t>
+          <t>1622 Federal Rd, Houston, TX 77015</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ageless Stoneworks Granite &amp; Marble</t>
+          <t>Steadfast Stone Crafters, LLC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1622 Federal Rd, Houston, TX 77015</t>
+          <t>houstonmarblecountertops.com</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Steadfast Stone Crafters, LLC</t>
+          <t>Best Quartz and Granite</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>houstonmarblecountertops.com</t>
+          <t>702 N Sam Houston Pkwy E, Houston, TX 77060</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Best Quartz and Granite</t>
+          <t>roisgranitecountertops</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>702 N Sam Houston Pkwy E, Houston, TX 77060</t>
+          <t>8057 Fallbrook Dr, Houston, TX 77064</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>roisgranitecountertops</t>
+          <t>K &amp; N Custom Granite,LLC</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>8057 Fallbrook Dr, Houston, TX 77064</t>
+          <t>3421 Bacor Rd, Houston, TX 77084</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>K &amp; N Custom Granite,LLC</t>
+          <t>Granite Granite, Inc.</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>3421 Bacor Rd, Houston, TX 77084</t>
+          <t>10410 Hempstead Rd, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Granite Granite, Inc.</t>
+          <t>Max Marble &amp; Granite Inc.</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>10410 Hempstead Rd, Houston, TX 77092</t>
+          <t>4110 Southerland Rd, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Max Marble &amp; Granite Inc.</t>
+          <t>Natural Stone Gallery Inc</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4110 Southerland Rd, Houston, TX 77092</t>
+          <t>13202 Murphy Rd, Stafford, TX 77477</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Natural Stone Gallery Inc</t>
+          <t>Granite Marble Etc</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>13202 Murphy Rd, Stafford, TX 77477</t>
+          <t>6401 Long Point Rd bldg 600, Houston, TX 77055</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Granite Marble Etc</t>
+          <t>Northwest Granite &amp; Marble</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6401 Long Point Rd bldg 600, Houston, TX 77055</t>
+          <t>11431 Todd St, Houston, TX 77055</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Northwest Granite &amp; Marble</t>
+          <t>American Countertop Fabricators</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>11431 Todd St, Houston, TX 77055</t>
+          <t>1500 Brittmoore Rd Suite 504, Houston, TX 77043</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>American Countertop Fabricators</t>
+          <t>Simply Solid Surface</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1500 Brittmoore Rd Suite 504, Houston, TX 77043</t>
+          <t>4634 Farm to Market 2920, Spring, TX 77388</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Simply Solid Surface</t>
+          <t>Legacy Granite and Marble Co., Inc</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>4634 Farm to Market 2920, Spring, TX 77388</t>
+          <t>6214 Keyko St, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Legacy Granite and Marble Co., Inc</t>
+          <t>Imperial Granite</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>6214 Keyko St, Houston, TX 77041</t>
+          <t>11126 Neeshaw Dr b9, Houston, TX 77065</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Imperial Granite</t>
+          <t>Terry Stone Inc</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>11126 Neeshaw Dr b9, Houston, TX 77065</t>
+          <t>7020 Cotton Dr, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Terry Stone Inc</t>
+          <t>Eagle Stone LLC</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>7020 Cotton Dr, Houston, TX 77092</t>
+          <t>14120 Hempstead Rd, Houston, TX 77040</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Eagle Stone LLC</t>
+          <t>Ortega Stone and Tile Creations</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>14120 Hempstead Rd, Houston, TX 77040</t>
+          <t>327 E Roselane St, Houston, TX 77076</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ortega Stone and Tile Creations</t>
+          <t>Barron's Granite and Construction - Granite Fabricator, Granite Repair &amp; Installation, Granite Kitchen Countertops</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>327 E Roselane St, Houston, TX 77076</t>
+          <t>tupalo.com</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Barron's Granite and Construction - Granite Fabricator, Granite Repair &amp; Installation, Granite Kitchen Countertops</t>
+          <t>QUAN STONE Countertops</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>tupalo.com</t>
+          <t>quowanstone1.wixsite.com</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>QUAN STONE Countertops</t>
+          <t>H&amp;V Granite CounterTops Services</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>quowanstone1.wixsite.com</t>
+          <t>9414 Bearden Creek Ln, Humble, TX 77396</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>H&amp;V Granite CounterTops Services</t>
+          <t>Schlitzberger Stone Designs</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>9414 Bearden Creek Ln, Humble, TX 77396</t>
+          <t>6343 Alder Dr, Houston, TX 77081</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Schlitzberger Stone Designs</t>
+          <t>Boeker Countertops of Houston</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>6343 Alder Dr, Houston, TX 77081</t>
+          <t>13018 Kaltenbrun Rd #1, Houston, TX 77086</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Boeker Countertops of Houston</t>
+          <t>Sapphire Stone</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>13018 Kaltenbrun Rd #1, Houston, TX 77086</t>
+          <t>facebook.com</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sapphire Stone</t>
+          <t>Pacific Stone Enterprise</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>facebook.com</t>
+          <t>3375 Old Spanish Trl, Houston, TX 77021</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Pacific Stone Enterprise</t>
+          <t>Pick-A-Stone</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>3375 Old Spanish Trl, Houston, TX 77021</t>
+          <t>5701 Bingle Rd Ste A106, Houston, TX 77092</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pick-A-Stone</t>
+          <t>Absolute Marble and Granite, Inc.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>5701 Bingle Rd Ste A106, Houston, TX 77092</t>
+          <t>505 Parker St, Houston, TX 77007</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Absolute Marble and Granite, Inc.</t>
+          <t>Earth Stone Colours</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>505 Parker St, Houston, TX 77007</t>
+          <t>8758 Clay Rd Suite #400, Houston, TX 77080</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Earth Stone Colours</t>
+          <t>All World Stone Supply</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>8758 Clay Rd Suite #400, Houston, TX 77080</t>
+          <t>23527 FM1314 Suite B, Porter, TX 77365</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>All World Stone Supply</t>
+          <t>Instyle Granite &amp; Marble</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>23527 FM1314 Suite B, Porter, TX 77365</t>
+          <t>14210 Aston St, Houston, TX 77040</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Instyle Granite &amp; Marble</t>
+          <t>Earth Stone Colours</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>14210 Aston St, Houston, TX 77040</t>
+          <t>4305 B, 4305 Richmond Ave. Ste A, Houston, TX 77027</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Marvel-Works.Com</t>
+          <t>Future Stone</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>6700 Woodlands Pkwy STE 230 #455, The Woodlands, TX 77382</t>
+          <t>6040 Brittmoore Rd, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Earth Stone Colours</t>
+          <t>ABC STONE &amp; KITCHEN</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>4305 B, 4305 Richmond Ave. Ste A, Houston, TX 77027</t>
+          <t>335 Staffordshire Rd STE. 5, Stafford, TX 77477</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Future Stone</t>
+          <t>Earth Stone Colours (Prefab)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>6040 Brittmoore Rd, Houston, TX 77041</t>
+          <t>8700 Clay Rd Suite #230, Houston, TX 77080</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ABC STONE &amp; KITCHEN</t>
+          <t>Marble Line</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>335 Staffordshire Rd STE. 5, Stafford, TX 77477</t>
+          <t>32522 McAllister Rd, Brookshire, TX 77423</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Earth Stone Colours (Prefab)</t>
+          <t>Granite Countertops Houston Tx</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>8700 Clay Rd Suite #230, Houston, TX 77080</t>
+          <t>granitecountertopshoustontx.com</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Marble Line</t>
+          <t>Millstone Marble</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>32522 McAllister Rd, Brookshire, TX 77423</t>
+          <t>20737 FM 1774, Plantersville, TX 77363</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Granite Countertops Houston Tx</t>
+          <t>Mega Stone Inc</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>granitecountertopshoustontx.com</t>
+          <t>megastoneinc.business.site</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Millstone Marble</t>
+          <t>Medina Countertops</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>20737 FM 1774, Plantersville, TX 77363</t>
+          <t>medinacountertops.com</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mega Stone Inc</t>
+          <t>TT Stone Outlet</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>megastoneinc.business.site</t>
+          <t>5750 Campbell Rd, Houston, TX 77041</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Medina Countertops</t>
+          <t>JED Custom Countertops Corp.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>medinacountertops.com</t>
+          <t>27405 Old Washington Rd, Hockley, TX 77447</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TT Stone Outlet</t>
+          <t>TaylorMade Custom Granite</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>5750 Campbell Rd, Houston, TX 77041</t>
+          <t>714 Honea Egypt Rd suite f, Magnolia, TX 77354</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>JED Custom Countertops Corp.</t>
+          <t>granite countertops starting at $5.99 per sf granite and cabinet warehouse</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>27405 Old Washington Rd, Hockley, TX 77447</t>
+          <t>8307 Bauman Rd, Houston, TX 77022</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TaylorMade Custom Granite</t>
+          <t>Xiamen Superior Stone Co.,Ltd.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>714 Honea Egypt Rd suite f, Magnolia, TX 77354</t>
+          <t>12333 Sowden Rd Ste B # 30327, Houston, TX 77080</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>granite countertops starting at $5.99 per sf granite and cabinet warehouse</t>
+          <t>MLE GRANITE</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>8307 Bauman Rd, Houston, TX 77022</t>
+          <t>1211 "B, N Loop 336 W, Conroe, TX 77301</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Xiamen Superior Stone Co.,Ltd.</t>
+          <t>Lowe's Home Improvement</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>12333 Sowden Rd Ste B # 30327, Houston, TX 77080</t>
+          <t>6400 Brodie Ln, Austin, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Latera Architectural Surfaces</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Aaron's Custom Countertops</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Natural Stone Headquarters</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>5001 Gonzales St, Austin, TX 78702</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fortunate Granite</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>301 Laguna Vista Dr, Austin, TX 78746</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Prestige Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Austin Granite Direct</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>6600 Burleson Rd A-D, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Toor Stone Countertops</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>7019 Burleson Rd Bldg 1, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Benavidez Countertops</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>(512) 698-0455</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GNS Custom Stoneworks LLC</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>4250 Felter Ln Ste A, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Toluca Granite</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>8079 N Lamar Blvd #1, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>STA Granite Solutions</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>stagranitesolutions.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Encore Stone Studio | Austin Countertops</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>10220 Metropolitan Dr, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>AAA Countertops</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>4216 Felter Ln, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Austin Granite Direct</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1744 W Anderson Ln., Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Austin Tops</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>7700 Danz Blvd, Austin, TX 78724</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>New Stone Concepts</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>11311 Conroy Ln, Manchaca, TX 78652</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Graniteworks</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2011 Rutland Dr, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>True Blue Surfaces</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>11102 Bluff Bend Dr, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Cosentino Center Austin</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1340 Airport Commerce Dr #100, Austin, TX 78741</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Austin's Custom Tops</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>7700 State Hwy 71 #130, Austin, TX 78735</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Progressive Stone</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>11118 N Lamar Blvd, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Bella Stone &amp; Quartz Surfaces</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>11904 Old San Antonio Rd Suite #7, Manchaca, TX 78652</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Austin Stone Works</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>13810 N Interstate Hwy 35, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Premier Stone Installations</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>premierstoneinstallations.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Legacy Granite and Cabinets Designs</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>703 Victor St, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BEST STONE</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>13290 Pond Springs Rd, Austin, TX 78729</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Portal Granite Designs</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>9704 Cheryl Lynn Rd, Austin, TX 78747</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Alpha Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>915 W Howard Ln, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Stone Systems of Central Texas</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>4101 Smith School Road Ste #200 Bld. 2, 4101 Smith School Rd Bldg 2, Suite 100, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Precision Granite &amp; Stone</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1710 Bench Mark Dr, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>A's Marble &amp; Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>9508 Cheryl Lynn Rd, Austin, TX 78747</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>STA Granite Solutions / Countertops</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1011 S Heatherwilde Blvd Unit 100, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Modern Stoneworks</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>4508 FM1327, Creedmoor, TX 78610</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Baroque Countertops | Granite, Marble &amp; Quartz</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1605 Bench Mark Dr, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BRZ Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>15700 N Interstate Hwy 35, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Texas Granite Group</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>5201 Wolf Ln # A, Del Valle, TX 78617</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>WALLACE GRANITE</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1565 W Pflugerville Loop, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Austin Granite and Quartz</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>(512) 250-5829</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Triton Stone of Austin</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>10505 Boyer Blvd, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Stone Innovations</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>15602 Connie St, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>National Tile, Countertops and Cabinets</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>601 Victor St, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Architectural Surfaces</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>401 Center Ridge Dr Suite 100, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Victory Countertops Austin</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>13560 Research Blvd, Austin, TX 78750</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Travertine Artisans</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>10208 N FM 620 #3A, Austin, TX 78726</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>CRS Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2301 Scarbrough Dr #360, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Levantina The Natural Stone Company AUSTIN BRANCH</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2251 Picadilly Dr Suite B200, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>JL Cabinet &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>15301 N Interstate Hwy 35 D-1, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Hilltop Stones &amp; Interiors</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2120 Grand Ave Pkwy #150, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Heart of Stone LLC</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>721 Rohde Rd, Kyle, TX 78640</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Granite Countertops Austin</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2220 Ridgepoint Dr, Austin, TX 78754</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Absolute Granite Surfaces</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>absolutegranitesurfaces.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Exotic Stone Works</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>237 Benelli Dr, Hutto, TX 78634</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>StonePressions</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>stonepressions.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Stone Works Design</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>399 Millennium Dr, Niederwald, TX 78640</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>MATERIAL Bespoke Stone + Tile</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>701 S Capital of Texas Hwy Suite Q990, Austin, TX 78746</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Gia Stone</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Dock Doors, 2700 Louis Henna Blvd, 8 9 STE 100, Unit C9, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>StoneCare of Texas</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>J &amp; H Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>111 Investment Loop, Hutto, TX 78634</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Perfect Countertops</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1701 Sullivan St, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>JL Cabinet &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>3601 W William Cannon Dr #285, Austin, TX 78749</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>U Granites &amp; Cabinets More</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>8910 Research Blvd b3, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Stratus Surfaces</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16140 Bratton Ln #100, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Midwest Tile Marble &amp; Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2120 Grand Ave Pkwy #175, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Foundation Stone</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>fstoneconcrete.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>LINDA CABINETS &amp; GRANITE</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>9600 S I-35 Frontage Rd suite s-125, Austin, TX 78748</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>V F Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>10401 Mc Kalla Pl, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Equinox Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2328 N Austin Ave, Georgetown, TX 78626</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Architectural Tile &amp; Stone</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>9315 Neils Thompson Dr, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DELA TILE AND STONE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>9900 US-290, Austin, TX 78736</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Innovation Stone Work</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Commerce St, Austin, TX 78721</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>True Custom Countertops</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1350 E Palm Valley Blvd unit 400, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Tough Tops</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>3601 S Congress Ave # H100, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Horizon Italian Tile</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>910 N Lamar Blvd, Austin, TX 78703</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Porcelanosa Austin</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>400 Barton Springs Rd, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Cabinets, Countertops, Flooring</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>5800 W Slaughter Ln Suite 300, Austin, TX 78749</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Arete European Kitchens</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>700 N Lamar Blvd # 100, Austin, TX 78703</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Ancient Art Concrete Countertops</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>(512) 537-0776</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Austin Kitchen and Flooring</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10609 Metric Blvd #100, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Texas Custom Granite Co.</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>5606 Old Greenhouse Rd, Houston, TX 77084</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Countertops &amp; Flooring by Traditional Designs</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>3602 W 12th St, Houston, TX 77008</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Texas Stone Sealers</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Quartz &amp; Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Manor, TX 78653</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sonno</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>7301 Burnet Rd, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>The Granite Warehouse</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>7118 Killough St, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Bella Stone Countertops</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Fast Granite</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>6200 N Farm to Market Rd 973, Austin, TX 78724</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Ann Sacks</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1011 W 5th St #110, Austin, TX 78703</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Marble and Granite Countertops Design</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2244 1st St Suite A, Rosenberg, TX 77471</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>StoneStore</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>11850 Hempstead Hwy #230, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>TGG Stone Granite and Quartz</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>23740 Hwy 6, Alvin, TX 77511</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Diamond Cut Granite Co Granite &amp; Quartz Countertops</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>455 E House St, Alvin, TX 77511</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Gardinner</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Hauptstraße 1/2, 78665 Frittlingen, Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>3KA STONE / Marble Slab Showroom and Warehouse</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2202 Lamar St, Houston, TX 77003</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>QuantumStone</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>10410 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Discount Granite &amp; Cabinets</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>454 S Texas 6, Houston, TX 77079</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Cangelosi, inc</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>14021 S Gessner Rd, Missouri City, TX 77489</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Quartzite Inc</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>22344 Farris Green Rd, Porter, TX 77365</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Lowe's Home Improvement</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>4120 Dowlen Rd, Beaumont, TX 77706</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Marble Crafters</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>4395 W Cardinal Dr, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>A Queen Stone Granite</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1025 Montrose Ave, Beaumont, TX 77707</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>slab select</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>4595 Fannett Rd, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Flooring &amp; Countertops Plus LLC</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>4849 W Cardinal Dr, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Molinas Granite</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1020 Montrose Ave, Beaumont, TX 77707</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>EE Cabinet &amp; Granite INC</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>(409) 840-9900</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>The Best Granite &amp; Quartz</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1620 E Cardinal Dr, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Superior Granite by Vivaldi (Nederland)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2634 U.S. 69 Access Rd, Nederland, TX 77627</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Chiseled Stone Decor</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>939 N Twin City Hwy, Nederland, TX 77627</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Crystal Countertop store</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>55 N 11th St #369, Beaumont, TX 77702</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Texas Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2895 North St, Vidor, TX 77662</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Home Stone Granite</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>homestonegranite-tx.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>You Wish It I Granite</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>385 W Fwy Blvd S, Vidor, TX 77662</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>A Best Granite</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2180 W Cardinal Dr, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>B&amp;N Granite.Llc</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>720 Old Hwy 90 E East, Vidor, TX 77662</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Quality Sales Co</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>7950 Eastex Fwy, Beaumont, TX 77708</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Roy's Granite</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>6520 (Rear College St, Beaumont, TX 77707</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>C&amp;S Granite &amp; Cabinets Home Center</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2240 MacArthur Dr, Orange, TX 77630</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Nancy's Cabinets &amp; Granite Countertop</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>6723 Stewart Rd, Galveston, TX 77551</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>A&amp;E Rosas Granite Countertops- Houston,TX- Low Prices, Quality Service</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>(346) 757-6757</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Andy's Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1602 Gault Rd, Houston, TX 77039</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>DFW Countertops</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2628 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Lira Stone</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2908 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Omni Marble, Inc.</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2407 Al Lipscomb Way, Dallas, TX 75215</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Power Stone Countertops</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>(469) 214-7200</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Countertops, Inc.</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>327 Cole St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Granite, Marble &amp; Quartz Countertops - Dallas</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Martinez Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2908 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Econ Granite - Marble, Quartz &amp; Granite Kitchen Countertops</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>econgranite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Dallas Granite Countertops | Big Star Granite</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>bigstargranite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Grindstone Granite Dallas</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2600 Sylvan Ave Suite 200, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Stone Boutique</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1532 Slocum St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sosa’s Custom Granite</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2908 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Axis Counter Effects, LLC</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2320 Taylor St, Dallas, TX 75201</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Royal GraniTops</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>4838 Vicksburg St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Countertops Etc, Inc.</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>4838 Vicksburg St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Countertops Etc, Inc.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>4751 Algiers St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>National Stone LTD</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>3102 Sylvan Ave, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Texas Granite Inc</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2815 N Westmoreland Rd, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>AMC Stone Inc | Stone Fabrication &amp; Countertop Fabrication | Stone Countertops Store in Dallas, TX</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>7700 Sovereign Row, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Vivid Surfaces</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2908 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>E&amp;A Countertop Restorations LLC</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>fortworthcountertoprestoration.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Granite Master</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>634 W Mockingbird Ln, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>jmg granite &amp; marble call: (214)405-7700</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>3126 Carlson Dr, Dallas, TX 75235</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>The Granite Lab</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2106 Sylvan Ave, Dallas, TX 75208</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>CCT Natural Stone Designs</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>8400 Ambassador Row Ste 100, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>D-Tex Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>(469) 475-8196</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Cowboy's Countertops, LLC</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>4710 Don Dr, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Escobar Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2619 Farrington St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>VIP Granite</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>5135 Lawnview Ave, Dallas, TX 75227</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Galaxy Granite &amp; Stone Inc</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>9011 John W. Carpenter Fwy suite b-104, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>The Stumble Stone</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>633 W Davis St, Dallas, TX 75208</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Quality Stone Co Marble &amp; Grnt</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1120 S Beckley Ave, Dallas, TX 75203</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Hard Rock Imports - Granite Countertops Dallas</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>3207 Oradell Ln, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Taxila Stone LLC- Stone Gallery of Dallas | Marble, Granite and Limestone Experience Center in Dallas</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>4843 Calvert St, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Granite Republic Countertops</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>9101 Sovereign Row, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>AGM Countertops, LLC</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2200 Regency Dr, Irving, TX 75062</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>StoneXpressions</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2647 Andjon Dr, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Stonemode Granite</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2840 Reward Ln, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>A Joy Of Granite</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>5907 Orchid Ln, Dallas, TX 75230</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>World Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>USA Granite Counter Top Fabricators</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2407 N Walton Walker Blvd, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>DFW Granite</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>10230 Bickham Rd #300, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Stone Brokers of Texas</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>10240 Bickham Rd #200, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>G&amp;J Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>4738 Alexander Ln, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Stone Perceptions, LLC</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>8464 Endicott Ln, Dallas, TX 75227</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ABCY Stone</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>11243 Shady Trail, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>DFW StoneWorks</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1714 N Interstate 35E, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Allied Gallery Dallas</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2405 Crown Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ProGranite Countertops</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1790 Peters Rd, Irving, TX 75061</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Dallas Granite Installers</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>7828 Brookhollow Rd, Dallas, TX 75235</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Stone Source</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1825 Market Center Blvd # 400, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Moreno Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>3812 Dividend Dr, Garland, TX 75042</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Aria Stone Gallery - Dallas Showroom</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1617 Hi Line Dr #310, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Urban Stone Counters, Inc</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>8201 Scyene Rd, Dallas, TX 75227</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>H&amp;L Chiseled Granite</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>8300 S Central Expy, Dallas, TX 75241</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Architectural Surfaces Dallas</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>11180 Zodiac Ln, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>StoneTex Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>11455 Newkirk St #1414, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Foxy Countertops</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1602 Rowan Ave, Dallas, TX 75223</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Stone Impressions</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>11157 Ables Ln, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Kiva Stone Dallas</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>11935 N Stemmons Fwy Suite 160, Dallas, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>LX GRANITE INC</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>10031 Monroe Dr #206, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Regios Granite &amp; Flooring</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2215 River Hill Rd, Irving, TX 75061</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>CPH Countertops</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>8300 S Central Expy, Dallas, TX 75241</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>CORMAC STONE GRANITE COUNTERTOPS</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Solid Stone Fabricators</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>3215 Oradell Ln, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Stone City Dallas</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2424 Joe Field Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>GC Stone Fabricators</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>3207 Oradell Ln, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>My Stone Fabricator</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2674 Myrtle Springs Ave, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>R.A.C. Torres Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>4731 Lucky Ln, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Taxila Stone LLC- Natural Stones | Marble and Granite Suppliers in Dallas TX</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2815 Barge Ln, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Verona Marble Company</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>4879 Olson Dr, Dallas, TX 75227</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>J’s Natural Stone</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>10031 Monroe Dr Suite 105, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Granite Countertop Outlet</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>10635 King William Dr, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>R C Stone</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>3730 Dilido Rd # 420, Dallas, TX 75228</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Texas Counter Fitters - Granite &amp; Quartz Countertops</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>909 N Bowser Rd, Richardson, TX 75081</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>JRP Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>11235 Grissom Ln suite b, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>De Leon Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>deleongranitecountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Irving Counter Top Inc</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>101 N Irving Heights Dr, Irving, TX 75061</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>C&amp;C GRANITE &amp; MARBLE LLC,</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2640 Northaven Rd Ste #105, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>CS GRANITE INC CUSTOM STONE GRANITE AND MARBLE</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2405 Fabens Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Stone Age Granite Dallas</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>206 Garvon St, Garland, TX 75040</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Texas Best Countertops</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>10821 Composite Dr Suite 200, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Omega Natural Stone - The Stone Boutique</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>12901 Nicholson Rd Building 3 #Suite 300, Farmers Branch, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Azteca Granite</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>3139 National Cir B, Garland, TX 75041</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Everest Stone</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2330 Royal Ln Suite 100, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Mugica Granite and Quartz</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>10230 Bickham Rd Suite 400 &amp; 500, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>The Stone Collection</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>11935 N Stemmons Fwy Ste 100, Dallas, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Elite Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>(972) 217-0252</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Hilltop Granite Dallas</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>12401 N Stemmons Fwy #140, Farmers Branch, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Classic Counter Tops</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2325 Executive Dr, Garland, TX 75041</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Gage's Granite</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2427 Glenda Ln, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Vega Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>3300 Danieldale Rd, Lancaster, TX 75134</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Tajams Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>13649 Beta Rd, Farmers Branch, TX 75244</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Heritage Stonecraft LLC</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2801 Belt Line Rd, Garland, TX 75044</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Texas Granite</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1000 W Crosby Rd #112, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>AA Granite Fabrication Center</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1225 W College Ave #616, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Granite Fabricators</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>11307 Sherman Ave, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Elevation Stone</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2700 Story Rd W Ste 180, Irving, TX 75038</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Vicostone USA</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>11620 Goodnight Ln # 100, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>MSI Dallas</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>12845 Valley Branch Ln #100, Farmers Branch, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Ocean Granite and Marble LLC</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2270 Manana Dr, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Cosmos Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2244 Luna Rd #100, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Best Cheer Stone &amp; Cabinets</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2020 Valley View Ln, Farmers Branch, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Allied Stone Dallas</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2315 Crown Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Granite Design Center</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>506 N Central Expy, Richardson, TX 75080</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Mesquite Marble, Quartz and Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Irving Quartz, Granite and Marble Countertops</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>MAAC Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>9717 Porter Ave, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>TNG Granite</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2640 Northaven Rd Ste #105, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Alluring Stone</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>alluringstone.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Payless Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>10031 Monroe Dr, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Natural Stone Fabricators of America LLC</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2417 Fabens Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>V&amp;M Granite</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2741 US-175 Frontage Rd, Seagoville, TX 75159</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>R.M. Stone</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Acue Marmonite Inc.</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1400 N Interstate 35E #108, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Flavio's Granite</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2118 Arden Rd, Dallas, TX 75241</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Sabella Carved Stone</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1333 Oak Lawn Ave suite a, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>HMC Smart Countertops, LLC</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>320 S Belt Line Rd #108, Irving, TX 75060</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>LoneStar Granite Countertop Inc.</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1715 Rhome St, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Stone Countertops</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>stonemodegranite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Lowe's Home Improvement</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>6011 Lemmon Ave, Dallas, TX 75209</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Granite Republic Countertops</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1711 Chenault St, Dallas, TX 75228</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Infinity Stone, Inc.</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>9101 Sovereign Row, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Irving Counter Top Inc</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>deleongranitecountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Mesquite Marble, Quartz and Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>506 N Central Expy, Richardson, TX 75080</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Guillermina Home Improvement Countertops &amp; More Remodeling</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>guillerminahomeimprovement.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Betsy Johnson Design</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>betsyjohnsondesign.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>GNS Custom Stoneworks LLC</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>601 Victor St, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Caldera Design Concrete Countertops</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1406 Smith Rd, Austin, TX 78721</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>JV Countertop</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>jvcountertop.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Custom Homes Countertop Designs</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>(512) 538-4682</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Premier Stone Installations</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>915 W Howard Ln, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Cambria</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>13560 Research Blvd, Austin, TX 78750</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Langham Group</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>10712 N Lamar Blvd c, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Coleman Millworks</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>501 Congress Ave., Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Absolute Designs Countertops &amp; Cabinets - Austin</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>1408 Manjack Cay Dr, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>ABC FLOORING AND COUNTERTOPS</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Gold Star Cabinets &amp; Countertops</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>16240 N Interstate 35 Frontage Rd, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Smart Granite Countertop Association</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>15311 Connie St, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Select Cabinets and Countertops</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>sites.google.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Kitchen Remodelers Austin TX</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>1401 Lavaca St #234, Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Macoy Countertops</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Estrada Countertops and More</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>estradacountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>US Surfaces</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>4601 Spicewood Springs Rd Building 1, Suite 100, Austin, TX 78759</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>1200 Barbara Jordan Blvd, Austin, TX 78723</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>MHM Remodeling</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>mhmremodeling.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Cabinet Central Austin</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>8400 Brodie Ln UNIT 103, Austin, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Kitch Cabinetry and Design</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>5929 Burnet Rd B, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>3600 S I-35 Frontage Rd, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Cabinets To Go</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>5510 I-35, Austin, TX 78751</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Cabinet IQ of Austin</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>8305 State Hwy 71 #110, Austin, TX 78735</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1200 Home Depot Blvd, Sunset Valley, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Custom Countertops of Central Texas</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>150 W Amity Rd, Belton, TX 76513</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Peter's Cabinets and Countertops</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>peterscabinetsandcountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Lowe's Home Improvement</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>5510 S I-35 Frontage Rd, Austin, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Marich Inc</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>marichinc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Cabinet IQ</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>3418 Duke Rd, Austin, TX 78724</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Floor King</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>4006 S Lamar Blvd #250, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Home Depot, 10515 MoPac Expy, Austin, TX 78759</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Premier Bathroom Remodel Austin</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>516 Congress Ave., Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Cabinetto</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>9518 Anderson Mill Rd Suite B, Austin, TX 78729</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>7900 N FM 620, Austin, TX 78726</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Perfect Surface Inc</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>6800 West Gate Blvd, Austin, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Temporary Kitchens 123</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>106 E 6th St #900, Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Art Tile and Renovation</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>austin-tile-pro.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>8801 S I-35 Frontage Rd, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>WSS Austin</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>8906 Wall St #508, Austin, TX 78754</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Kitchen Central</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>3010 W Anderson Ln. C, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Rockin' Remodeling LLC.</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>7784+VQ, Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>The Austin Kitchen and Bathrooms Remodelers</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>kitchenremodeleraustin.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>INSIDE Interior Design Cooperative</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>insidedesigncooperative.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>1517 Town Center Dr, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Amazing Floors LP</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>1366 State Hwy 71, Bastrop, TX 78602</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>2551 S I-35 Frontage Rd, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>13309 N Interstate Hwy 35 North, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Lowe's Home Improvement</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>8000 Shoal Creek Blvd, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>HD Kitchen &amp; Bath - Houston Cabinetry, Countertops, Flooring</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>11768 Clay Rd, Houston, TX 77043</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Orange22</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>600 Congress Ave., Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>3600 Ranch Rd 620 S, Bee Cave, TX 78738</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>11301 Lakeline Blvd, Austin, TX 78717</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>4Corners Countertops</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Dam Site Rd, Conroe, TX 77304</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>GMZ Countertops</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>1720 Field Store Rd Unit A, Waller, TX 77484</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>LFM Construction &amp; Remodeling</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>600 Congress Ave., Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>TJ Concrete Contractors Austin</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>1501 Barton Springs Rd, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Teamwork Home Designs - General Contractor Austin</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>1401 Art Dilly Dr. unit 259, Austin, TX 78702</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Garcia remodeling</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>10105 Wind Cave Trail, Austin, TX 78747</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Ace K&amp;B Austin</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>12113 Metric Blvd, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>J &amp; M Fast Counter Tops, LLC</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>(512) 350-6736</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>R&amp;H Granite</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>(713) 344-4182</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Master Quality Granite</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>9801 Beck Cir, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>AllDone Construction</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>7600 Chevy Chase Dr Suite 300, Austin, TX 78752</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>David Mena Granite</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>countertopcontractoraustintx.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Luxe Kitchen and Bath</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>luxekitchenbath.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Circle H Commercial &amp; Residential Services LLC</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>3416 Duke Rd, Austin, TX 78724</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>M &amp; D Specialty Coatings</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>901 S MoPac Expy building 1 suite 300A, Austin, TX 78746</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Triple Heart Design</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>calendly.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Home Shop - Bill Parsons Countertops</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>1851 Co Rd 280, Leander, TX 78641</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Kitchen and Bathroom Remodeling AJ</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>3605 Steck Ave apt 1128, Austin, TX 78759</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>MSI Austin</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>2300-8 Scarbrough Dr, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Jurassic Design</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Austin, TX 78751</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Builder Pro | Remodeling Austin TX</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>builderproaustin.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Cubriels Countertop Solutions LLC</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>1200 Barbara Jordan Blvd Suite 100, Austin, TX 78723</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>All Aspects Construction</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>(325) 266-0723</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Morales Repair &amp; Improvement LLC</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>moralesrepairimprovementllc.one</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Austin Painting and Cabinets</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>8650 Spicewood Springs Rd #145, Austin, TX 78759</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>GIS Contracting</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>2612 S 3rd St, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>3600 S I-35 Frontage Rd S, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Revent Builds</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>2506 S Lamar Blvd #2, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>MARBLELIFE® of Austin</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>marblelife-austin.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Austin Wood Refinishing</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>(512) 883-1823</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>8801 S, I-35, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Newbold Stone Architectural Concrete</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>7300 Bain Rd, Del Valle, TX 78617</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>1200 Home Depot Blvd, Sunset Valley, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>The Frog Pad Kitchen And Bath Designer Showroom</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>1501 Ranch Rd 620 N a, Lakeway, TX 78734</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Daltile, Marazzi Showroom &amp; Design Studio</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>2424 S Lamar Blvd, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Austin Painting &amp; Drywall LLC</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>atxgc.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Lone Star Concrete Austin</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>(737) 283-4999</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Reyes Pro Services, LLC</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>reyesproservices.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Elegant Coatings</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>11906 Broad Oaks Dr, Austin, TX 78759</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>10515 N Mopac Expy, Austin, TX 78759</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Laura Roberts Design</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>laurarobertsdesign.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Webber + Studio, Architects</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>1220 Lavaca St, Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>G.T Conkrete LLC</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>(512) 215-1307</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Austin Concrete Co</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>2311 Thornton Rd Unit H, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Envy Woods Construction LLC</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>envywoodsconstruction.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Gracie Concrete</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>3219 Barton View Dr, Austin, TX 78735</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>A1 COUNTERTOP FABRICATORS</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>(832) 898-6102</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>13309 N Interstate Hwy 35 North, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>François Lévy Architecture + Interiors</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>2124 E 6th St UNIT 107, Austin, TX 78702</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Forever Texas Granite</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Jimenez Countertops Solutions LLC</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>G&amp;G Countertops Solutions</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>(832) 231-9371</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>ProForm Countertops</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>(832) 497-3904</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Granite countertop installation</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2002 Vaughn St, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Final Touch Granite</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>12684 FM 149, Montgomery, TX 77316</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Skelly Build</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>4361 S Congress Ave #104, Austin, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Lone Star Stone Works LLC</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>(713) 502-9772</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Contracting Unlimited</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>(281) 384-7619</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>PavlinaStone Incorporated</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>pavlinastone.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>AMG COUNTERTOPS AND FLOORS</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>3623 Keeland St, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Countertops Contractor</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>5715 Airline Dr, Houston, TX 77076</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Royal Oak Renovations, Inc.</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>3309 Baer St, Houston, TX 77020</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>StoneWood Works</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>10522 Palestine St, Jacinto City, TX 77029</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Kitchen &amp; Bath Restoration Houston</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>kitchenandbathrestorationhouston.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Shape Up Your Kitchen</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>shapeupyourkitchen.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Granite World Unlimited</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>kitchenandbathrestorationhouston.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Granite World Unlimited</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>3315 W 11th St, Houston, TX 77008</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Ariza Countertops LLC</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>9017 Friendly Rd, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Empire Granite LLC</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>3541 Pinemont Dr, Houston, TX 77018</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Lenova Stone</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>6425 Long Dr, Houston, TX 77087</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>URBAN Bath Remodeling</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>(832) 302-2361</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>A Guzman Construction LLC</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>hotfrog.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Stone Age Marble &amp; Granite Inc</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>2035 Pech Rd, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Kitchen and Bath</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>1707 S Durham Dr, Houston, TX 77007</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Aura Home Remodeling</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>6260 Westpark Dr, Houston, TX 77057</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Angel Countertop</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>angel-countertop.business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Impact Stone Design, Inc.</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>3118 Golfcrest Blvd, Houston, TX 77087</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Vázquez Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>9426 W Montgomery Rd, Houston, TX 77088</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Silestone Central</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>2425 Southmore Blvd Ste 200, Houston, TX 77004</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Jorge Erazo's Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>130 Mitchell Rd unit 5, Houston, TX 77037</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Precision Plus Interiors</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>(713) 502-6950</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Kitchen &amp; Bathroom Remodeling Houston</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>(281) 767-9448</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Juliet Harper Kitchens</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>7707 Pinemont Dr, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Monarch Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>8928 Spring Branch Dr, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Gaines Co.</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Hawthorne St, Houston, TX 77098</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Great Priced Granite</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>9830 Tanner Rd suite g, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Top Choice Remodeling</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>2050 N Loop W Suite 100, Houston, TX 77018</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>J&amp;J Granite</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>2218 Hopper Rd, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Countertops Of Texas, LLC</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>11902 Proctor St, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Houston Counter Top Co</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>7571 Morley St, Houston, TX 77061</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Toc Toc Construccion LLC</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>3139 Golfcrest Blvd, Houston, TX 77087</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Carlos stone Enterprise</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>(832) 925-9341</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>CJ Contractor Services</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>(832) 779-2527</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Ordonez Remodeling &amp; Home Improvement</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>8405 Wednesbury Ln, Houston, TX 77074</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Rock Master Counter Tops LLC</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>6627 Breen Dr, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Bespoke Countertops &amp; Flooring</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>4338 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>TTS Countertops- Fabrication Facility</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>4501 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Division 9 Inc.</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>7110 Santiago St, Houston, TX 77023</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Tailor Made Tile &amp; Marble, Inc.</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>5803 Sprite St, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Flintstone Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>131 Garrotsville St, Houston, TX 77022</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Bathtub Refinishing Pros</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>bathtubrefinishinghouston.org</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Foscari Interiors</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>2226 Richmond Ave., Houston, TX 77098</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Houston Remodeling</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>308 Sikes St Suite A, Houston, TX 77018</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Bespoke Countertops, LLC- Fabrication Facility</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>4501 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Big City Construction Co</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>3612 Mangum Rd #210, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Mayra's Contracting Services</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>4501 Gessner Rd suite b, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>ProperForte - Home Remodeling</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>5757 Woodway Dr unit 308A, Houston, TX 77057</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Absolute Designs C&amp;T Inc</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>6306 W Little York Rd, Houston, TX 77091</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Floor Floor We Restore</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>2617 Bissonnet St #433, Houston, TX 77005</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>CC Kitchen Bath Cabinets Countertops</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>1085 Gessner Rd, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Tony Contractor | Bathroom and Kitchen Remodeling Services Company Houston Tx</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>8787 Woodway Dr suite 3302, Houston, TX 77063</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>National Terrazzo Tile and Marble, Inc</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>5728 Hood St A, Houston, TX 77023</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Countertop Services, LLC</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>countertopservicestx.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Pyramid Imports Tile-Flooring</t>
+        </is>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>3501 N Main St, Houston, TX 77009</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Fabulous Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>3507 Thistle St, Houston, TX 77047</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Venturas countertops</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>11450 Farm to Market 1960 Rd W #200, Houston, TX 77065</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>10600 Eastex Fwy, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>La Maison Tile &amp; Remodeling</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>4245 Richmond Ave. Suite 400 Ste 400, Houston, TX 77027</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Ortiz’s Stone Restoration</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>10800 Fondren Rd #3309, Houston, TX 77096</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>CCL IMPERIAL STONE</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>6202 W 34th St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Houston Granite &amp; Marble Center</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>9500 Hempstead Hwy, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Neu Veneer Refinishing</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>neuveneer.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Jeon Designs</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>2801 Waterwall Dr #725, Houston, TX 77056</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>999 N Loop W, Houston, TX 77008</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>ARC Cabinetry</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>10410 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>All The Marbles, Inc.</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>7700 Renwick Dr ste 4a, Houston, TX 77081</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Houston Tile Works</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>8403 Westglen Dr a2002, Houston, TX 77063</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Designer Floors of Houston</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>3508 Lake St, Houston, TX 77098</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>AA Quartz Countertop Installation and Granite Countertop Maintenance</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>(346) 584-2163</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Castanon Concrete Designs LLC</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>5710 Trendale St, Houston, TX 77087</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Rapid Concrete Services</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>4101 Greenbriar Dr Suite 105, Houston, TX 77098</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Countertops ,Quartz, Granite ,Vanitys and Kitchen</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>(281) 780-9207</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>David's Counter Tops</t>
+        </is>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Texas Stone Sealers</t>
+        </is>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>2929 Allen Pkwy STE. 200, Houston, TX 77019</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Marble &amp;granite resources</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>3421 Vivian Rd, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Worldwide Remodeling Services</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>9836 Clay Rd, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Spazio Interni Kitchen &amp; Home Design</t>
+        </is>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>3801 Kirby Dr #120, Houston, TX 77098</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Earth Stone Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>316 Forrest Ave, San Antonio, TX 78204</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>San Antonio Stone and Granite</t>
+        </is>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>1716 S San Marcos, San Antonio, TX 78207</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Custom Granite Quartz</t>
+        </is>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>126 W Lachapelle, San Antonio, TX 78204</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>C.F Granite &amp; Tile</t>
+        </is>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>1422 S Hackberry St, San Antonio, TX 78210</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>M &amp; M Marble Co</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>110 Jon Ann, San Antonio, TX 78201</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>True Granite</t>
+        </is>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>410 Blanco Rd, San Antonio, TX 78212</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>ABC Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>1731 S San Marcos Unit 107, San Antonio, TX 78207</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>True Blue Surfaces</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>3626 Binz Engleman Rd, San Antonio, TX 78219</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Elements Room</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>1211 Arion Pkwy Suite 112, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>MATERIAL Bespoke Stone + Tile (Corporate Office)</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>explorematerial.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>River City Rocktops Stone Quartz - Granite Slabs - Countertops</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>211 W Turbo Dr, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Pietra Granite</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>203 W Nakoma Dr, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Delta Granite &amp; Marble Inc</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>2011 Sable Ln, San Antonio, TX 78217</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Mena Stone Surfaces - Quartz and granite countertops</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>7950 Mainland Dr Unit 101, San Antonio, TX 78250</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Sublime Custom Stone</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>7950 Mainland Dr Unit 101, San Antonio, TX 78250</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Sublime Custom Stone</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>11210 Gordon Rd, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Natural Stone del Bosque</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>1435 Culebra Rd #101, San Antonio, TX 78201</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>MJ Granite Supply LLC</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>12010 Warfield St, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Triton Stone of San Antonio</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>107 W Nakoma Dr, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Lions Granite &amp; Marble LLC</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>3831 N Foster Rd, San Antonio, TX 78244</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>CRS Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>3011 NE Interstate 410 Loop Suite 101, San Antonio, TX 78218</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Natural Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>4343 Industrial Center Suite B, San Antonio, TX 78217</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>MGI Granite &amp; Cabinets</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>310 N Park Dr, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>Lackstone Marbles &amp; Granites</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>1010 Arion Pkwy Suite#105, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Granite Brothers</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>615 W Rhapsody Dr, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Alamo Stone Art Countertops &amp; Cabinets</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>14027 Dublin Square, San Antonio, TX 78217</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Discount Granite &amp; Quartz Countertops San Antonio TX</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>5763 Randolph Blvd, San Antonio, TX 78233</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>STI Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>100 W Nakoma Dr, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Hernandez Unlimited Granite</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>3902 S Flores St, San Antonio, TX 78214</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Marble and Tile Service</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>2670 Austin Hwy, San Antonio, TX 78218</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Bellezza Surfaces</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>11618 Jones Maltsberger Rd, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Duo's Granite and Cabinets</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>5407 Bandera Rd #104, San Antonio, TX 78238</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Grindstone Countertops LLC</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>9207 Marbach Rd Ste #103, San Antonio, TX 78245</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>J &amp; B's Countertop Instlltns</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>7715 Mainland Dr # 109, San Antonio, TX 78250</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>Stone Matters</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>78 Wayside Dr, San Antonio, TX 78213</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>Finest Stone Custom Granite</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>6630 Topper Run Ste. 7, San Antonio, TX 78233</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>Badboy Granite of San Antonio</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>9207 Marbach Rd Ste #103, San Antonio, TX 78245</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>Ameriquartz LLC</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>11503 Jones Maltsberger Rd # 2105, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>AGS Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Inside the HEB, 20935 U.S. Hwy 281 N, San Antonio, TX 78258</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>Armadillo Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>18230 Bracken Dr, San Antonio, TX 78266</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>San Antonio Granite Works</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>6230 Krempen Ave, San Antonio, TX 78233</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>Keystone Granite</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>18975 Marbach Ln #291, San Antonio, TX 78266</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>Universal Granite</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>1038 Hot Wells Blvd, San Antonio, TX 78223</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>Empire Countertops LLC</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>18630 Goll St, San Antonio, TX 78266</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>AD Cabinets &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>5450 Old Seguin Rd, San Antonio, TX 78219</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>King Stone Granite and Marble Fabricators</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>4065 I-10, San Antonio, TX 78219</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>Granite &amp; Marble Designs</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>Royal Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>12660 Old Corpus Christi Rd, Elmendorf, TX 78112</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>New Stone Counter Tops</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>4823 Rittiman Rd #10, San Antonio, TX 78218</t>
         </is>
       </c>
     </row>

--- a/Businesses.xlsx
+++ b/Businesses.xlsx
@@ -2,27 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="11520" windowHeight="8325" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -33,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,15 +45,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -412,147 +425,5679 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B473"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:B603"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="45" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>San Antonio Stone and Granite</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>1716 S San Marcos, San Antonio, TX 78207</t>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Address</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>C.F Granite &amp; Tile</t>
+          <t>Stones &amp; Designers</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1422 S Hackberry St, San Antonio, TX 78210</t>
+          <t>26937 FM2978, Magnolia, TX 77354</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Custom Granite Quartz</t>
+          <t>Tomball Granite &amp; Marble</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>126 W Lachapelle, San Antonio, TX 78204</t>
+          <t>31479 TX-249, Pinehurst, TX 77362</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ABC Granite and Tile</t>
+          <t>A &amp; R Granite Designs Inc</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1731 S San Marcos Unit 107, San Antonio, TX 78207</t>
+          <t>23705 Lenze Rd, Spring, TX 77389</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Earth Stone Granite and Marble</t>
+          <t>Brothers Granite &amp; Marble Services LLC</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>316 Forrest Ave, San Antonio, TX 78204</t>
+          <t>countertopstoretomball.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M &amp; M Marble Co</t>
+          <t>JB Granite Countertops Inc.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>110 Jon Ann, San Antonio, TX 78201</t>
+          <t>26214 Wildflower Dr, Magnolia, TX 77354</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>True Granite</t>
+          <t>Bolfing Brothers Marble, Inc.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>410 Blanco Rd, San Antonio, TX 78212</t>
+          <t>18407 Telge Rd, Cypress, TX 77429</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>STI Granite &amp; Marble</t>
+          <t>Cy Creek Marble &amp; Granite</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>100 W Nakoma Dr, San Antonio, TX 78216</t>
+          <t>16110 Kitzman Rd, Cypress, TX 77429</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>True Blue Surfaces</t>
+          <t>Red River Granite Importers &amp; Tile, LLC</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3626 Binz Engleman Rd, San Antonio, TX 78219</t>
+          <t>(832) 286-7895</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Elements Room</t>
+          <t>Precise Stone Countertops.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1211 Arion Pkwy Suite 112, San Antonio, TX 78216</t>
+          <t>11914 Rockland Dr, Houston, TX 77064</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Countertops Unlimited of Texas</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>21606 TX-249 B, Houston, TX 77070</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Simply Solid Surface</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FM 1960, Houston, TX 77090</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Stone Edge Countertops</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>10251 Woodedge Dr, Houston, TX 77070</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Keystone Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>(832) 924-8247</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Precision Countertops</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13315 Veterans Memorial Dr # 410, Houston, TX 77014</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>R &amp; D Countertops Inc.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>11450 Farm to Market 1960 Rd W #116, Houston, TX 77065</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Wave Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>14415 FM 529, Houston, TX 77095</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Houston Granite Remnants</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16745 Suite B, North Fwy, Houston, TX 77090</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Cypress Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>11223 Jones Rd, Houston, TX 77070</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Granite Zone</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nursery Rd, Spring, TX 77380</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Marvel-Works.Com</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6700 Woodlands Pkwy STE 230 #455, The Woodlands, TX 77382</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Rock Fin Countertops, Inc.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5830 Gessner Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Simmons Custom Granite</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5611 W Davis St, Conroe, TX 77304</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>King's Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2206 Maurine St, Houston, TX 77039</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>New Edge Stone. Inc,</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4810 Breen Dr, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>L &amp; M Granite LLC.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1818 Humble Westfield Rd, Houston, TX 77073</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>iGranite</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1808 W Sam Houston Pkwy N, Houston, TX 77043</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hilltop Stones &amp; Interiors</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>8760 Clay Rd Suite B, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Galaxy Stone</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>9134 North Fwy, Houston, TX 77037</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>All World Supply &amp; Stone Home Remodel</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23529 FM1314, Unit B, Porter, TX 77365</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Illusion Stone, Inc</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>7118 Killough St, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Grand Stone, LLC</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4909 Weeping Willow Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Majestic Stone Countertops and Flooring</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>8444 Rayson Rd, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Omni Surfaces North | Marble Granite Quartz Porcelain</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>802 Farm to Market 1960 Rd E, Houston, TX 77073</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Vicostone Houston</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4710 North Sam Houston Pkwy W #100, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epic Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5610 Centralcrest St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Milestone Countertops</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1022 Wirt Rd #308, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Stone Coverings of Houston</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>11007 W Hardy Rd, Houston, TX 77076</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Granite World</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>303 N Frazier St, Conroe, TX 77301</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>BW Granite Design</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>12430 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>NEW ERA STONE, LLC</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>23142 FM1314, Porter, TX 77365</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Tajams Marble And Granite</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>6429 W Sam Houston Pkwy N, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Euclase Stone Premium Quartz Warehouse</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5603 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>M.O.G. Custom Granite</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>11526 FM 2854 Rd, Conroe, TX 77304</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Glory to GOD, granite countertops in conroe tx , granite &amp; marble services , granite installation</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>16902 Pickering Rd, Conroe, TX 77302</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Maestro Surfaces</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2200 Lauder Rd, Houston, TX 77039</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Durastone Corporation</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>9815 North Fwy, Houston, TX 77037</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Lusso Stone Surfaces - Kitchen Countertop and Flooring</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lussostonesurfaces.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Yellow Stone Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1933 Knoll St, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Elegant Stone Fabrication</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>11981 FM 529 Suite A, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Granite Master</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4502 Steffani Ln, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Lone Star Countertops</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>11997 FM 3083, Conroe, TX 77301</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Vera Quartz Countertops</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>12642 Hempstead Rd Suite: B, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Target Stone LLC</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>11514 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kitchen Cabinets and Granite Counter Tops</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>13601 FM 529, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>D&amp;D Granite</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>12390 TX-249 unit A1, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Top Of The Line Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7411 Wright Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>The Granite Crew LLC</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2230 W Little York Rd, Houston, TX 77091</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jossemmy Stone</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4830 Ramus St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Houston Granite Guy</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>houstongraniteguy.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Midwest Tile Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>10555 Okanella St, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Reborn Granite</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>14730 Hempstead Rd, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SiRi Granite</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4849 Cranswick Rd building b, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>MSI Houston</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>14777 Chrisman Rd, Houston, TX 77039</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Omni Surfaces Central | Marble Granite Quartz Porcelain</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>8721 Clay Rd STE A, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Five Stones Countertops &amp; More</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>8938 Spring Branch Dr d1, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>AXIAL STONES</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>11329 Todd St B, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Caesarstone Houston</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>10650 W Little York Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Anderson Tile and Granite</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>24333 Riley Rd, Plantersville, TX 77363</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>City Stone LLC</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>8002 Pinemont Dr, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Vertex Stone Houston</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5900 Cunningham Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Quartz Surfacing &amp; Stones (Houston, TX)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>6605 Roxburgh Dr #300, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ageless Stoneworks Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1622 Federal Rd, Houston, TX 77015</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Steadfast Stone Crafters, LLC</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>houstonmarblecountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Best Quartz and Granite</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>702 N Sam Houston Pkwy E, Houston, TX 77060</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>roisgranitecountertops</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>8057 Fallbrook Dr, Houston, TX 77064</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>K &amp; N Custom Granite,LLC</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3421 Bacor Rd, Houston, TX 77084</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Granite Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>10410 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Max Marble &amp; Granite Inc.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>4110 Southerland Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Natural Stone Gallery Inc</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>13202 Murphy Rd, Stafford, TX 77477</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Granite Marble Etc</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>6401 Long Point Rd bldg 600, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Northwest Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>11431 Todd St, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>American Countertop Fabricators</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1500 Brittmoore Rd Suite 504, Houston, TX 77043</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Simply Solid Surface</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>4634 Farm to Market 2920, Spring, TX 77388</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Legacy Granite and Marble Co., Inc</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>6214 Keyko St, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Imperial Granite</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>11126 Neeshaw Dr b9, Houston, TX 77065</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Terry Stone Inc</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>7020 Cotton Dr, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Eagle Stone LLC</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>14120 Hempstead Rd, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Ortega Stone and Tile Creations</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>327 E Roselane St, Houston, TX 77076</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Barron's Granite and Construction - Granite Fabricator, Granite Repair &amp; Installation, Granite Kitchen Countertops</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>tupalo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>QUAN STONE Countertops</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>quowanstone1.wixsite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>H&amp;V Granite CounterTops Services</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>9414 Bearden Creek Ln, Humble, TX 77396</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Schlitzberger Stone Designs</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>6343 Alder Dr, Houston, TX 77081</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Boeker Countertops of Houston</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>13018 Kaltenbrun Rd #1, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sapphire Stone</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Pacific Stone Enterprise</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>3375 Old Spanish Trl, Houston, TX 77021</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Pick-A-Stone</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>5701 Bingle Rd Ste A106, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Absolute Marble and Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>505 Parker St, Houston, TX 77007</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Earth Stone Colours</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>8758 Clay Rd Suite #400, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>All World Stone Supply</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>23527 FM1314 Suite B, Porter, TX 77365</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Instyle Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>14210 Aston St, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Earth Stone Colours</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>4305 B, 4305 Richmond Ave. Ste A, Houston, TX 77027</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Future Stone</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>6040 Brittmoore Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>ABC STONE &amp; KITCHEN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>335 Staffordshire Rd STE. 5, Stafford, TX 77477</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Earth Stone Colours (Prefab)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>8700 Clay Rd Suite #230, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Marble Line</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>32522 McAllister Rd, Brookshire, TX 77423</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Granite Countertops Houston Tx</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>granitecountertopshoustontx.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Millstone Marble</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>20737 FM 1774, Plantersville, TX 77363</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Mega Stone Inc</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>megastoneinc.business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Medina Countertops</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>medinacountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>TT Stone Outlet</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>5750 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>JED Custom Countertops Corp.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>27405 Old Washington Rd, Hockley, TX 77447</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>TaylorMade Custom Granite</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>714 Honea Egypt Rd suite f, Magnolia, TX 77354</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>granite countertops starting at $5.99 per sf granite and cabinet warehouse</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>8307 Bauman Rd, Houston, TX 77022</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Xiamen Superior Stone Co.,Ltd.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>12333 Sowden Rd Ste B # 30327, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>MLE GRANITE</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1211 "B, N Loop 336 W, Conroe, TX 77301</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Lowe's Home Improvement</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>6400 Brodie Ln, Austin, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Latera Architectural Surfaces</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Aaron's Custom Countertops</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Natural Stone Headquarters</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>5001 Gonzales St, Austin, TX 78702</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Fortunate Granite</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>301 Laguna Vista Dr, Austin, TX 78746</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Prestige Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Austin Granite Direct</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>6600 Burleson Rd A-D, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Toor Stone Countertops</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>7019 Burleson Rd Bldg 1, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Benavidez Countertops</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>(512) 698-0455</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>GNS Custom Stoneworks LLC</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>4250 Felter Ln Ste A, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Toluca Granite</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>8079 N Lamar Blvd #1, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>STA Granite Solutions</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>stagranitesolutions.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Encore Stone Studio | Austin Countertops</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>10220 Metropolitan Dr, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>AAA Countertops</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>4216 Felter Ln, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Austin Granite Direct</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1744 W Anderson Ln., Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Austin Tops</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>7700 Danz Blvd, Austin, TX 78724</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>New Stone Concepts</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>11311 Conroy Ln, Manchaca, TX 78652</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Graniteworks</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>2011 Rutland Dr, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>True Blue Surfaces</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>11102 Bluff Bend Dr, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Cosentino Center Austin</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1340 Airport Commerce Dr #100, Austin, TX 78741</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Austin's Custom Tops</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>7700 State Hwy 71 #130, Austin, TX 78735</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Progressive Stone</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>11118 N Lamar Blvd, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Bella Stone &amp; Quartz Surfaces</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>11904 Old San Antonio Rd Suite #7, Manchaca, TX 78652</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Austin Stone Works</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>13810 N Interstate Hwy 35, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Premier Stone Installations</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>premierstoneinstallations.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Legacy Granite and Cabinets Designs</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>703 Victor St, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>BEST STONE</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>13290 Pond Springs Rd, Austin, TX 78729</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Portal Granite Designs</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>9704 Cheryl Lynn Rd, Austin, TX 78747</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Alpha Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>915 W Howard Ln, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Stone Systems of Central Texas</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>4101 Smith School Road Ste #200 Bld. 2, 4101 Smith School Rd Bldg 2, Suite 100, Austin, TX 78744</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Precision Granite &amp; Stone</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1710 Bench Mark Dr, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>A's Marble &amp; Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>9508 Cheryl Lynn Rd, Austin, TX 78747</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>STA Granite Solutions / Countertops</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1011 S Heatherwilde Blvd Unit 100, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Modern Stoneworks</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>4508 FM1327, Creedmoor, TX 78610</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Baroque Countertops | Granite, Marble &amp; Quartz</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1605 Bench Mark Dr, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>BRZ Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>15700 N Interstate Hwy 35, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Texas Granite Group</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>5201 Wolf Ln # A, Del Valle, TX 78617</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>WALLACE GRANITE</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1565 W Pflugerville Loop, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Austin Granite and Quartz</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>(512) 250-5829</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Triton Stone of Austin</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>10505 Boyer Blvd, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Stone Innovations</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>15602 Connie St, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>National Tile, Countertops and Cabinets</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>601 Victor St, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Architectural Surfaces</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>401 Center Ridge Dr Suite 100, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Victory Countertops Austin</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>13560 Research Blvd, Austin, TX 78750</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Travertine Artisans</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>10208 N FM 620 #3A, Austin, TX 78726</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>CRS Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>2301 Scarbrough Dr #360, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Levantina The Natural Stone Company AUSTIN BRANCH</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>2251 Picadilly Dr Suite B200, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>JL Cabinet &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>15301 N Interstate Hwy 35 D-1, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Hilltop Stones &amp; Interiors</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>2120 Grand Ave Pkwy #150, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Heart of Stone LLC</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>721 Rohde Rd, Kyle, TX 78640</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Granite Countertops Austin</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>2220 Ridgepoint Dr, Austin, TX 78754</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Absolute Granite Surfaces</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>absolutegranitesurfaces.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Exotic Stone Works</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>237 Benelli Dr, Hutto, TX 78634</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>StonePressions</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>stonepressions.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Stone Works Design</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>399 Millennium Dr, Niederwald, TX 78640</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>MATERIAL Bespoke Stone + Tile</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>701 S Capital of Texas Hwy Suite Q990, Austin, TX 78746</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Gia Stone</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Dock Doors, 2700 Louis Henna Blvd, 8 9 STE 100, Unit C9, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>StoneCare of Texas</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>J &amp; H Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>111 Investment Loop, Hutto, TX 78634</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Perfect Countertops</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1701 Sullivan St, Pflugerville, TX 78660</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>JL Cabinet &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>3601 W William Cannon Dr #285, Austin, TX 78749</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>U Granites &amp; Cabinets More</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>8910 Research Blvd b3, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Stratus Surfaces</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16140 Bratton Ln #100, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Midwest Tile Marble &amp; Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>2120 Grand Ave Pkwy #175, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Foundation Stone</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>fstoneconcrete.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>LINDA CABINETS &amp; GRANITE</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>9600 S I-35 Frontage Rd suite s-125, Austin, TX 78748</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>V F Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>10401 Mc Kalla Pl, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Equinox Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>2328 N Austin Ave, Georgetown, TX 78626</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Architectural Tile &amp; Stone</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>9315 Neils Thompson Dr, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>DELA TILE AND STONE</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>9900 US-290, Austin, TX 78736</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Innovation Stone Work</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Commerce St, Austin, TX 78721</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>True Custom Countertops</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1350 E Palm Valley Blvd unit 400, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Tough Tops</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>3601 S Congress Ave # H100, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Horizon Italian Tile</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>910 N Lamar Blvd, Austin, TX 78703</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Porcelanosa Austin</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>400 Barton Springs Rd, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Cabinets, Countertops, Flooring</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>5800 W Slaughter Ln Suite 300, Austin, TX 78749</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Arete European Kitchens</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>700 N Lamar Blvd # 100, Austin, TX 78703</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Ancient Art Concrete Countertops</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>(512) 537-0776</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Austin Kitchen and Flooring</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>10609 Metric Blvd #100, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Texas Custom Granite Co.</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>5606 Old Greenhouse Rd, Houston, TX 77084</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Countertops &amp; Flooring by Traditional Designs</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>3602 W 12th St, Houston, TX 77008</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Texas Stone Sealers</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Quartz &amp; Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Manor, TX 78653</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Sonno</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>7301 Burnet Rd, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>The Granite Warehouse</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>7118 Killough St, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Bella Stone Countertops</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Fast Granite</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>6200 N Farm to Market Rd 973, Austin, TX 78724</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Ann Sacks</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>1011 W 5th St #110, Austin, TX 78703</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Marble and Granite Countertops Design</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>2244 1st St Suite A, Rosenberg, TX 77471</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>StoneStore</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>11850 Hempstead Hwy #230, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>TGG Stone Granite and Quartz</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>23740 Hwy 6, Alvin, TX 77511</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Diamond Cut Granite Co Granite &amp; Quartz Countertops</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>455 E House St, Alvin, TX 77511</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Gardinner</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Hauptstraße 1/2, 78665 Frittlingen, Germany</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>3KA STONE / Marble Slab Showroom and Warehouse</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>2202 Lamar St, Houston, TX 77003</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>QuantumStone</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>10410 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Discount Granite &amp; Cabinets</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>454 S Texas 6, Houston, TX 77079</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Cangelosi, inc</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>14021 S Gessner Rd, Missouri City, TX 77489</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Quartzite Inc</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>22344 Farris Green Rd, Porter, TX 77365</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Lowe's Home Improvement</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>4120 Dowlen Rd, Beaumont, TX 77706</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Marble Crafters</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>4395 W Cardinal Dr, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>A Queen Stone Granite</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>1025 Montrose Ave, Beaumont, TX 77707</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>slab select</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>4595 Fannett Rd, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Flooring &amp; Countertops Plus LLC</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>4849 W Cardinal Dr, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Molinas Granite</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>1020 Montrose Ave, Beaumont, TX 77707</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>EE Cabinet &amp; Granite INC</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>(409) 840-9900</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>The Best Granite &amp; Quartz</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>1620 E Cardinal Dr, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Superior Granite by Vivaldi (Nederland)</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>2634 U.S. 69 Access Rd, Nederland, TX 77627</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Chiseled Stone Decor</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>939 N Twin City Hwy, Nederland, TX 77627</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Crystal Countertop store</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>55 N 11th St #369, Beaumont, TX 77702</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Texas Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>2895 North St, Vidor, TX 77662</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Home Stone Granite</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>homestonegranite-tx.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>You Wish It I Granite</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>385 W Fwy Blvd S, Vidor, TX 77662</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>A Best Granite</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>2180 W Cardinal Dr, Beaumont, TX 77705</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>B&amp;N Granite.Llc</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>720 Old Hwy 90 E East, Vidor, TX 77662</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Quality Sales Co</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>7950 Eastex Fwy, Beaumont, TX 77708</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Roy's Granite</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>6520 (Rear College St, Beaumont, TX 77707</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>C&amp;S Granite &amp; Cabinets Home Center</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2240 MacArthur Dr, Orange, TX 77630</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Nancy's Cabinets &amp; Granite Countertop</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>6723 Stewart Rd, Galveston, TX 77551</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>A&amp;E Rosas Granite Countertops- Houston,TX- Low Prices, Quality Service</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>(346) 757-6757</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Andy's Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>1602 Gault Rd, Houston, TX 77039</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>DFW Countertops</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2628 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Lira Stone</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>2908 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Omni Marble, Inc.</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>2407 Al Lipscomb Way, Dallas, TX 75215</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Power Stone Countertops</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>(469) 214-7200</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Countertops, Inc.</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>327 Cole St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Granite, Marble &amp; Quartz Countertops - Dallas</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Martinez Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2908 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Econ Granite - Marble, Quartz &amp; Granite Kitchen Countertops</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>econgranite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Dallas Granite Countertops | Big Star Granite</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>bigstargranite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Grindstone Granite Dallas</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>2600 Sylvan Ave Suite 200, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Stone Boutique</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>1532 Slocum St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Sosa’s Custom Granite</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>2908 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Axis Counter Effects, LLC</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>2320 Taylor St, Dallas, TX 75201</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Royal GraniTops</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>4838 Vicksburg St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Countertops Etc, Inc.</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>4838 Vicksburg St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Countertops Etc, Inc.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>4751 Algiers St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>National Stone LTD</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>3102 Sylvan Ave, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Texas Granite Inc</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>2815 N Westmoreland Rd, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>AMC Stone Inc | Stone Fabrication &amp; Countertop Fabrication | Stone Countertops Store in Dallas, TX</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>7700 Sovereign Row, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Vivid Surfaces</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>2908 Hickory St, Dallas, TX 75226</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>E&amp;A Countertop Restorations LLC</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>fortworthcountertoprestoration.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Granite Master</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>634 W Mockingbird Ln, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>jmg granite &amp; marble call: (214)405-7700</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>3126 Carlson Dr, Dallas, TX 75235</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>The Granite Lab</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>2106 Sylvan Ave, Dallas, TX 75208</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>CCT Natural Stone Designs</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>8400 Ambassador Row Ste 100, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>D-Tex Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>(469) 475-8196</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Cowboy's Countertops, LLC</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>4710 Don Dr, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Escobar Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>2619 Farrington St, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>VIP Granite</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>5135 Lawnview Ave, Dallas, TX 75227</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Galaxy Granite &amp; Stone Inc</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>9011 John W. Carpenter Fwy suite b-104, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>The Stumble Stone</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>633 W Davis St, Dallas, TX 75208</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Quality Stone Co Marble &amp; Grnt</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>1120 S Beckley Ave, Dallas, TX 75203</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Hard Rock Imports - Granite Countertops Dallas</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>3207 Oradell Ln, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Taxila Stone LLC- Stone Gallery of Dallas | Marble, Granite and Limestone Experience Center in Dallas</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>4843 Calvert St, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Granite Republic Countertops</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>9101 Sovereign Row, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>AGM Countertops, LLC</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>2200 Regency Dr, Irving, TX 75062</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>StoneXpressions</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>2647 Andjon Dr, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Stonemode Granite</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>2840 Reward Ln, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>A Joy Of Granite</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>5907 Orchid Ln, Dallas, TX 75230</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>World Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>USA Granite Counter Top Fabricators</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>2407 N Walton Walker Blvd, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>DFW Granite</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>10230 Bickham Rd #300, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Stone Brokers of Texas</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>10240 Bickham Rd #200, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>G&amp;J Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>4738 Alexander Ln, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Stone Perceptions, LLC</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>8464 Endicott Ln, Dallas, TX 75227</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>ABCY Stone</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>11243 Shady Trail, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>DFW StoneWorks</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1714 N Interstate 35E, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Allied Gallery Dallas</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>2405 Crown Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>ProGranite Countertops</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1790 Peters Rd, Irving, TX 75061</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Dallas Granite Installers</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>7828 Brookhollow Rd, Dallas, TX 75235</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Stone Source</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1825 Market Center Blvd # 400, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Moreno Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>3812 Dividend Dr, Garland, TX 75042</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Aria Stone Gallery - Dallas Showroom</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1617 Hi Line Dr #310, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Urban Stone Counters, Inc</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>8201 Scyene Rd, Dallas, TX 75227</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>H&amp;L Chiseled Granite</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>8300 S Central Expy, Dallas, TX 75241</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Architectural Surfaces Dallas</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>11180 Zodiac Ln, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>StoneTex Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>11455 Newkirk St #1414, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Foxy Countertops</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1602 Rowan Ave, Dallas, TX 75223</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Stone Impressions</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>11157 Ables Ln, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Kiva Stone Dallas</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>11935 N Stemmons Fwy Suite 160, Dallas, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>LX GRANITE INC</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>10031 Monroe Dr #206, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Regios Granite &amp; Flooring</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>2215 River Hill Rd, Irving, TX 75061</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>CPH Countertops</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>8300 S Central Expy, Dallas, TX 75241</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>CORMAC STONE GRANITE COUNTERTOPS</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Solid Stone Fabricators</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>3215 Oradell Ln, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Stone City Dallas</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>2424 Joe Field Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>GC Stone Fabricators</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>3207 Oradell Ln, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>My Stone Fabricator</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>2674 Myrtle Springs Ave, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>R.A.C. Torres Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>4731 Lucky Ln, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Taxila Stone LLC- Natural Stones | Marble and Granite Suppliers in Dallas TX</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>2815 Barge Ln, Dallas, TX 75212</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Verona Marble Company</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>4879 Olson Dr, Dallas, TX 75227</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>J’s Natural Stone</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>10031 Monroe Dr Suite 105, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Granite Countertop Outlet</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>10635 King William Dr, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>R C Stone</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>3730 Dilido Rd # 420, Dallas, TX 75228</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Texas Counter Fitters - Granite &amp; Quartz Countertops</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>909 N Bowser Rd, Richardson, TX 75081</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>JRP Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>11235 Grissom Ln suite b, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>De Leon Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>deleongranitecountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Irving Counter Top Inc</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>101 N Irving Heights Dr, Irving, TX 75061</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>C&amp;C GRANITE &amp; MARBLE LLC,</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>2640 Northaven Rd Ste #105, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>CS GRANITE INC CUSTOM STONE GRANITE AND MARBLE</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>2405 Fabens Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Stone Age Granite Dallas</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>206 Garvon St, Garland, TX 75040</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Texas Best Countertops</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>10821 Composite Dr Suite 200, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Omega Natural Stone - The Stone Boutique</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>12901 Nicholson Rd Building 3 #Suite 300, Farmers Branch, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Azteca Granite</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>3139 National Cir B, Garland, TX 75041</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Everest Stone</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>2330 Royal Ln Suite 100, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Mugica Granite and Quartz</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>10230 Bickham Rd Suite 400 &amp; 500, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>The Stone Collection</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>11935 N Stemmons Fwy Ste 100, Dallas, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Elite Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>(972) 217-0252</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Hilltop Granite Dallas</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>12401 N Stemmons Fwy #140, Farmers Branch, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Classic Counter Tops</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>2325 Executive Dr, Garland, TX 75041</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Gage's Granite</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>2427 Glenda Ln, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Vega Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>3300 Danieldale Rd, Lancaster, TX 75134</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Tajams Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>13649 Beta Rd, Farmers Branch, TX 75244</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Heritage Stonecraft LLC</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>2801 Belt Line Rd, Garland, TX 75044</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Texas Granite</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1000 W Crosby Rd #112, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>AA Granite Fabrication Center</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1225 W College Ave #616, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Granite Fabricators</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>11307 Sherman Ave, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Elevation Stone</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>2700 Story Rd W Ste 180, Irving, TX 75038</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Vicostone USA</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>11620 Goodnight Ln # 100, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>MSI Dallas</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>12845 Valley Branch Ln #100, Farmers Branch, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Ocean Granite and Marble LLC</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>2270 Manana Dr, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Cosmos Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>2244 Luna Rd #100, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Best Cheer Stone &amp; Cabinets</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>2020 Valley View Ln, Farmers Branch, TX 75234</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Allied Stone Dallas</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>2315 Crown Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Granite Design Center</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>506 N Central Expy, Richardson, TX 75080</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Mesquite Marble, Quartz and Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Irving Quartz, Granite and Marble Countertops</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>MAAC Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>9717 Porter Ave, Dallas, TX 75220</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>TNG Granite</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>2640 Northaven Rd Ste #105, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Alluring Stone</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>alluringstone.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Payless Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>10031 Monroe Dr, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Natural Stone Fabricators of America LLC</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>2417 Fabens Rd, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>V&amp;M Granite</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>2741 US-175 Frontage Rd, Seagoville, TX 75159</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>R.M. Stone</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>facebook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Acue Marmonite Inc.</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1400 N Interstate 35E #108, Carrollton, TX 75006</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Flavio's Granite</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>2118 Arden Rd, Dallas, TX 75241</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Sabella Carved Stone</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1333 Oak Lawn Ave suite a, Dallas, TX 75207</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>HMC Smart Countertops, LLC</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>320 S Belt Line Rd #108, Irving, TX 75060</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>LoneStar Granite Countertop Inc.</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1715 Rhome St, Dallas, TX 75229</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Stone Countertops</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>stonemodegranite.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Granite Republic Countertops</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1711 Chenault St, Dallas, TX 75228</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Infinity Stone, Inc.</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>9101 Sovereign Row, Dallas, TX 75247</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Irving Counter Top Inc</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>deleongranitecountertops.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Mesquite Marble, Quartz and Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>506 N Central Expy, Richardson, TX 75080</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Guillermina Home Improvement Countertops &amp; More Remodeling</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>guillerminahomeimprovement.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>GNS Custom Stoneworks LLC</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>601 Victor St, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Caldera Design Concrete Countertops</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1406 Smith Rd, Austin, TX 78721</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>JV Countertop</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>jvcountertop.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Custom Homes Countertop Designs</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>(512) 538-4682</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Premier Stone Installations</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>915 W Howard Ln, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Absolute Designs Countertops &amp; Cabinets - Austin</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1408 Manjack Cay Dr, Round Rock, TX 78664</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Gold Star Cabinets &amp; Countertops</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>16240 N Interstate 35 Frontage Rd, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Smart Granite Countertop Association</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>15311 Connie St, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Kitchen Remodelers Austin TX</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>1401 Lavaca St #234, Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>US Surfaces</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>4601 Spicewood Springs Rd Building 1, Suite 100, Austin, TX 78759</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Cabinet Central Austin</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>8400 Brodie Ln UNIT 103, Austin, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Kitch Cabinetry and Design</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>5929 Burnet Rd B, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Cabinets To Go</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>5510 I-35, Austin, TX 78751</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Cabinet IQ of Austin</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>8305 State Hwy 71 #110, Austin, TX 78735</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Custom Countertops of Central Texas</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>150 W Amity Rd, Belton, TX 76513</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Cabinet IQ</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>3418 Duke Rd, Austin, TX 78724</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Floor King</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>4006 S Lamar Blvd #250, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Premier Bathroom Remodel Austin</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>516 Congress Ave., Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Cabinetto</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>9518 Anderson Mill Rd Suite B, Austin, TX 78729</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>WSS Austin</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>8906 Wall St #508, Austin, TX 78754</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Kitchen Central</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>3010 W Anderson Ln. C, Austin, TX 78757</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Rockin' Remodeling LLC.</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>7784+VQ, Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Amazing Floors LP</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>1366 State Hwy 71, Bastrop, TX 78602</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>HD Kitchen &amp; Bath - Houston Cabinetry, Countertops, Flooring</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>11768 Clay Rd, Houston, TX 77043</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>4Corners Countertops</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Dam Site Rd, Conroe, TX 77304</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>GMZ Countertops</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>1720 Field Store Rd Unit A, Waller, TX 77484</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>LFM Construction &amp; Remodeling</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>600 Congress Ave., Austin, TX 78701</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Teamwork Home Designs - General Contractor Austin</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>1401 Art Dilly Dr. unit 259, Austin, TX 78702</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Garcia remodeling</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>10105 Wind Cave Trail, Austin, TX 78747</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Ace K&amp;B Austin</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>12113 Metric Blvd, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>J &amp; M Fast Counter Tops, LLC</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>(512) 350-6736</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>R&amp;H Granite</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>(713) 344-4182</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Master Quality Granite</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>9801 Beck Cir, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>David Mena Granite</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>countertopcontractoraustintx.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Luxe Kitchen and Bath</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>luxekitchenbath.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Home Shop - Bill Parsons Countertops</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>1851 Co Rd 280, Leander, TX 78641</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Kitchen and Bathroom Remodeling AJ</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>3605 Steck Ave apt 1128, Austin, TX 78759</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Daltile, Marazzi Showroom &amp; Design Studio</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>2424 S Lamar Blvd, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Gracie Concrete</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>3219 Barton View Dr, Austin, TX 78735</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>A1 COUNTERTOP FABRICATORS</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>11902 Proctor St. Houston, TX 77038</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Home Services at The Home Depot</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>13309 N Interstate Hwy 35 North, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>François Lévy Architecture + Interiors</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>2124 E 6th St UNIT 107, Austin, TX 78702</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Forever Texas Granite</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Send to your phone</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Jimenez Countertops Solutions LLC</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>business.site</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>G&amp;G Countertops Solutions</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>(832) 231-9371</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>ProForm Countertops</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>(832) 497-3904</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Granite countertop installation</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>2002 Vaughn St, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Final Touch Granite</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>12684 FM 149, Montgomery, TX 77316</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>AMG COUNTERTOPS AND FLOORS</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>3623 Keeland St, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Countertops Contractor</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>5715 Airline Dr, Houston, TX 77076</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Royal Oak Renovations, Inc.</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>3309 Baer St, Houston, TX 77020</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Granite World Unlimited</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>3315 W 11th St, Houston, TX 77008</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Ariza Countertops LLC</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>9017 Friendly Rd, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Empire Granite LLC</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>3541 Pinemont Dr, Houston, TX 77018</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Lenova Stone</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>6425 Long Dr, Houston, TX 77087</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Stone Age Marble &amp; Granite Inc</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>2035 Pech Rd, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Kitchen and Bath</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>1707 S Durham Dr, Houston, TX 77007</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Aura Home Remodeling</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>6260 Westpark Dr, Houston, TX 77057</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Impact Stone Design, Inc.</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>3118 Golfcrest Blvd, Houston, TX 77087</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Vázquez Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>9426 W Montgomery Rd, Houston, TX 77088</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Silestone Central</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>2425 Southmore Blvd Ste 200, Houston, TX 77004</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Jorge Erazo's Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>130 Mitchell Rd unit 5, Houston, TX 77037</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Juliet Harper Kitchens</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>7707 Pinemont Dr, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Monarch Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>8928 Spring Branch Dr, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Great Priced Granite</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>9830 Tanner Rd suite g, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Top Choice Remodeling</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>2050 N Loop W Suite 100, Houston, TX 77018</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>J&amp;J Granite</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>2218 Hopper Rd, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Countertops Of Texas, LLC</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>11902 Proctor St, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Houston Counter Top Co</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>7571 Morley St, Houston, TX 77061</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Rock Master Counter Tops LLC</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>6627 Breen Dr, Houston, TX 77086</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Bespoke Countertops &amp; Flooring</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>4338 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>TTS Countertops- Fabrication Facility</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>4501 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Tailor Made Tile &amp; Marble, Inc.</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>5803 Sprite St, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Flintstone Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>131 Garrotsville St, Houston, TX 77022</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Houston Remodeling</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>308 Sikes St Suite A, Houston, TX 77018</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Bespoke Countertops, LLC- Fabrication Facility</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>4501 Campbell Rd, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Big City Construction Co</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>3612 Mangum Rd #210, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Mayra's Contracting Services</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>4501 Gessner Rd suite b, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>ProperForte - Home Remodeling</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>5757 Woodway Dr unit 308A, Houston, TX 77057</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Absolute Designs C&amp;T Inc</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>6306 W Little York Rd, Houston, TX 77091</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>CC Kitchen Bath Cabinets Countertops</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>1085 Gessner Rd, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Tony Contractor | Bathroom and Kitchen Remodeling Services Company Houston Tx</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>8787 Woodway Dr suite 3302, Houston, TX 77063</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>National Terrazzo Tile and Marble, Inc</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>5728 Hood St A, Houston, TX 77023</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Pyramid Imports Tile-Flooring</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>3501 N Main St, Houston, TX 77009</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Fabulous Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>3507 Thistle St, Houston, TX 77047</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Venturas countertops</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>11450 Farm to Market 1960 Rd W #200, Houston, TX 77065</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>La Maison Tile &amp; Remodeling</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>4245 Richmond Ave. Suite 400 Ste 400, Houston, TX 77027</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Ortiz’s Stone Restoration</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>10800 Fondren Rd #3309, Houston, TX 77096</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>CCL IMPERIAL STONE</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>6202 W 34th St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Houston Granite &amp; Marble Center</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>9500 Hempstead Hwy, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Jeon Designs</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>2801 Waterwall Dr #725, Houston, TX 77056</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>All The Marbles, Inc.</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>7700 Renwick Dr ste 4a, Houston, TX 77081</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Castanon Concrete Designs LLC</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>5710 Trendale St, Houston, TX 77087</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Rapid Concrete Services</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>4101 Greenbriar Dr Suite 105, Houston, TX 77098</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Texas Stone Sealers</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>2929 Allen Pkwy STE. 200, Houston, TX 77019</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Marble &amp;granite resources</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>3421 Vivian Rd, Houston, TX 77093</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Worldwide Remodeling Services</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>9836 Clay Rd, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Spazio Interni Kitchen &amp; Home Design</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>3801 Kirby Dr #120, Houston, TX 77098</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>San Antonio Stone and Granite</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>1716 S San Marcos, San Antonio, TX 78207</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>C.F Granite &amp; Tile</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>1422 S Hackberry St, San Antonio, TX 78210</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Custom Granite Quartz</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>126 W Lachapelle, San Antonio, TX 78204</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>ABC Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>1731 S San Marcos Unit 107, San Antonio, TX 78207</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Earth Stone Granite and Marble</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>316 Forrest Ave, San Antonio, TX 78204</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>M &amp; M Marble Co</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>110 Jon Ann, San Antonio, TX 78201</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>True Granite</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>410 Blanco Rd, San Antonio, TX 78212</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>True Blue Surfaces</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>3626 Binz Engleman Rd, San Antonio, TX 78219</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Elements Room</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>1211 Arion Pkwy Suite 112, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
           <t>River City Rocktops Stone Quartz - Granite Slabs - Countertops</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B470" t="inlineStr">
         <is>
           <t>211 W Turbo Dr, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Delta Granite &amp; Marble Inc</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>2011 Sable Ln, San Antonio, TX 78217</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>STI Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>100 W Nakoma Dr, San Antonio, TX 78216</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Elegante Granite</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>1378 Rilling Rd, San Antonio, TX 78214</t>
         </is>
       </c>
     </row>

--- a/Businesses.xlsx
+++ b/Businesses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B473"/>
+  <dimension ref="A1:B478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6101,6 +6101,66 @@
         </is>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Cruz Laminates &amp; Countertops</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>5207 Harrisburg Blvd, Houston, TX 77011</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Sweeney Marble Co</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>2401 Polk St, Houston, TX 77003</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Victor's Granite Designers</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>3822 Ranch St, Houston, TX 77026</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Texas Custom Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>10835 Maple Leaf St, Houston, TX 77016</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Floor &amp; Decor</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>4330 Dacoma St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Businesses.xlsx
+++ b/Businesses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B478"/>
+  <dimension ref="A1:B526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6161,6 +6161,582 @@
         </is>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Natural Stone Inc</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>1929 Dorsett, Houston, TX 77029</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Laminate Countertops</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>3832 N Shepherd Dr B, Houston, TX 77018</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Tex-Star Marble and Granite</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>4834 Ramus St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>BAYOU CITY GRANITE</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>8307 Bauman Rd, Houston, TX 77022</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Superior Granite</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>205 Meadow Lea Dr, Houston, TX 77022</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Stone Age Marble &amp; Granite Inc</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>4830 Ramus St, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>AMC Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>3541 Creekmont Dr, Houston, TX 77091</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Aprile's Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>6005 Milwee St # 714, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Francini Inc. Marble &amp; Granite - Houston</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>7108 Old Katy Rd suite 100, Houston, TX 77024</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>CCH Granite</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>3616 Lumberdale Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Wilsonart</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>552 Garden Oaks Blvd, Houston, TX 77018</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>A.T. Custom Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>501 Gulf Bank Rd, Houston, TX 77037</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Terra Granite Slabs Center</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>12642 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Marquez Granite And Tile</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>6826 Evans St, Houston, TX 77061</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Imperial Granite &amp; Cabinets</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>8700 Clay Rd #216, Houston, TX 77080</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Olympus Marble</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>2141 Bingle Rd, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Granite Surfaces</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>8030 Pinemont Dr, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Museum Flooring Granite Cabinet Factory</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>4004 Gulf St, Houston, TX 77017</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Quality Countertops Inc</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>1315 Illinois St, South Houston, TX 77587</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>J.K. Granite &amp; Cabinet</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>6601 W Sam Houston Pkwy S, Houston, TX 77072</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Terraco Stone</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>6411 Ashcroft Dr # A, Houston, TX 77081</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>HTX Custom Countertops</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>10580 Hammerly Blvd #1712, Houston, TX 77043</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>MATERIAL Bespoke Stone + Tile</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>1335 W Gray St Suite 100, Houston, TX 77019</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>B and D Granite and Tile</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>8010 Pinemont Dr, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Godstone Corp</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>4722 Creekmont Dr, Houston, TX 77091</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>International Granite &amp; Marble (IGM)</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>8017 Pinemont Dr # 300, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>I Q Granite &amp; Flooring Inc</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>8017 Pinemont Dr # 300, Houston, TX 77040</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>I Q Granite &amp; Flooring Inc</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>1306 Washington St, South Houston, TX 77587</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Toros Countertops &amp; Gabinets</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>1103 Bland St, Houston, TX 77091</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>W R Watson Inc</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>12902 Mula Ln, Stafford, TX 77477</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>C M Custom Marble Design</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>10129 O'Donnell Dr, Houston, TX 77076</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Vivaldi Lifestyles</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>12614 Hempstead Rd, Houston, TX 77092</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Kitchen &amp; Bath Concepts</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>7026 Old Katy Rd #148, Houston, TX 77024</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Richmond Granite &amp; Marble</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>16403 W Bellfort Blvd, Sugar Land, TX 77498</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Space City Kitchen Remodeling Solutions</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>2204a Louisiana St, Houston, TX 77002</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Roquemore Marble &amp; Granite</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>1291 N Post Oak Rd # 130, Houston, TX 77055</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>1200 Home Depot Blvd, Sunset Valley, TX 78745</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Anna's Granite Gallery</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>16409 Farm to Market Rd 1325, Austin, TX 78728</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Capital of Texas Stoneworks</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>9801 Beck Cir, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Lackstone Marbles &amp; Granites</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>2200 Denton Dr Suite-114, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>CitiQuartz Austin LLC</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>10609 Metric Blvd, Austin, TX 78758</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Langham Group</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>10712 N Lamar Blvd c, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>J &amp; H Granite, Inc.</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>237 Benelli Dr, Hutto, TX 78634</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>J&amp;L Granite Countertops</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>135 Torchlight Dr, Bastrop, TX 78602</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>PORCELANOSA Austin</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>400 Barton Springs Rd, Austin, TX 78704</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Floor &amp; Decor</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>12901 N Interstate Hwy 35 #3, Austin, TX 78753</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>The Home Depot</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>1200 Barbara Jordan Blvd, Austin, TX 78723</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Stone Edge Countertops</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>4502 Steffani Ln, Houston, TX 77041</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
